--- a/data/Bullying - Location of.. (Leb. County Pays 207-2012).xlsx
+++ b/data/Bullying - Location of.. (Leb. County Pays 207-2012).xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hersheys-my.sharepoint.com/personal/dsmithds_hersheys_com/Documents/misc/SARCC/PAYS/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_D78C6D779ED89089B3C04537D62528E350C3CBB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1DC790C-5738-4B99-AA00-D18ABD6FFF34}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -88,46 +79,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
@@ -137,7 +122,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -147,68 +132,74 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+  <cellXfs count="16">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -398,26 +389,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="37.200000000000003" customHeight="1">
+    <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -463,7 +448,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="13.2">
+    <row r="2">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -471,19 +456,19 @@
         <v>0.7</v>
       </c>
       <c r="C2" s="8">
-        <v>0.73299999999999998</v>
+        <v>0.733</v>
       </c>
       <c r="D2" s="8">
-        <v>0.78500000000000003</v>
+        <v>0.785</v>
       </c>
       <c r="E2" s="8">
-        <v>0.68600000000000005</v>
+        <v>0.686</v>
       </c>
       <c r="F2" s="8">
-        <v>0.73299999999999998</v>
+        <v>0.733</v>
       </c>
       <c r="G2" s="8">
-        <v>0.79100000000000004</v>
+        <v>0.791</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>10</v>
@@ -492,12 +477,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.2">
+    <row r="3">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>0.22900000000000001</v>
+        <v>0.229</v>
       </c>
       <c r="C3" s="8">
         <v>0.216</v>
@@ -521,27 +506,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13.2">
+    <row r="4">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="C4" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="D4" s="8">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="E4" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="F4" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="G4" s="8">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>10</v>
@@ -550,27 +535,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13.2">
+    <row r="5">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="8">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="C5" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="D5" s="8">
         <v>0.04</v>
       </c>
       <c r="E5" s="8">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="F5" s="8">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="G5" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>10</v>
@@ -579,27 +564,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13.2">
+    <row r="6">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="8">
-        <v>6.3E-2</v>
+        <v>0.063</v>
       </c>
       <c r="C6" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="D6" s="8">
         <v>0.05</v>
       </c>
       <c r="E6" s="8">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="F6" s="8">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="G6" s="8">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>10</v>
@@ -608,27 +593,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13.2">
+    <row r="7">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="8">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="C7" s="8">
-        <v>7.0999999999999994E-2</v>
+        <v>0.071</v>
       </c>
       <c r="D7" s="8">
-        <v>7.1999999999999995E-2</v>
+        <v>0.072</v>
       </c>
       <c r="E7" s="8">
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="F7" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>0.079</v>
       </c>
       <c r="G7" s="8">
-        <v>6.9000000000000006E-2</v>
+        <v>0.069</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>10</v>
@@ -637,185 +622,185 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.2">
+    <row r="8">
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="13.2">
+    <row r="9">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>0.76300000000000001</v>
+        <v>0.763</v>
       </c>
       <c r="C9" s="8">
-        <v>0.79600000000000004</v>
+        <v>0.796</v>
       </c>
       <c r="D9" s="8">
-        <v>0.85499999999999998</v>
+        <v>0.855</v>
       </c>
       <c r="E9" s="8">
-        <v>0.73399999999999999</v>
+        <v>0.734</v>
       </c>
       <c r="F9" s="8">
-        <v>0.77300000000000002</v>
+        <v>0.773</v>
       </c>
       <c r="G9" s="8">
-        <v>0.83799999999999997</v>
+        <v>0.838</v>
       </c>
       <c r="H9" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.2">
+    <row r="10">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8">
-        <v>0.17499999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="C10" s="8">
         <v>0.16</v>
       </c>
       <c r="D10" s="8">
-        <v>0.10100000000000001</v>
+        <v>0.101</v>
       </c>
       <c r="E10" s="8">
-        <v>0.19500000000000001</v>
+        <v>0.195</v>
       </c>
       <c r="F10" s="8">
-        <v>0.17799999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="G10" s="8">
         <v>0.112</v>
       </c>
       <c r="H10" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13.2">
+    <row r="11">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="8">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="C11" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="D11" s="8">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="E11" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="F11" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="G11" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="H11" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13.2">
+    <row r="12">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="C12" s="8">
         <v>0.03</v>
       </c>
       <c r="D12" s="8">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="E12" s="8">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="F12" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="G12" s="11">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="H12" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.2">
+    <row r="13">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="C13" s="8">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="D13" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="E13" s="8">
-        <v>7.1999999999999995E-2</v>
+        <v>0.072</v>
       </c>
       <c r="F13" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="G13" s="11">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="H13" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13.2">
+    <row r="14">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="8">
-        <v>7.1999999999999995E-2</v>
+        <v>0.072</v>
       </c>
       <c r="C14" s="8">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="D14" s="8">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="E14" s="8">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="F14" s="8">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="G14" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="H14" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="13.2">
+    <row r="15">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -825,12 +810,12 @@
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="13.2">
+    <row r="16">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="8">
-        <v>0.71399999999999997</v>
+        <v>0.714</v>
       </c>
       <c r="C16" s="8">
         <v>0.75</v>
@@ -842,24 +827,24 @@
         <v>0.65</v>
       </c>
       <c r="F16" s="11">
-        <v>0.74299999999999999</v>
+        <v>0.743</v>
       </c>
       <c r="G16" s="8">
-        <v>0.81799999999999995</v>
+        <v>0.818</v>
       </c>
       <c r="H16" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.2">
+    <row r="17">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="8">
-        <v>0.20399999999999999</v>
+        <v>0.204</v>
       </c>
       <c r="C17" s="8">
         <v>0.186</v>
@@ -868,109 +853,109 @@
         <v>0.13</v>
       </c>
       <c r="E17" s="8">
-        <v>0.25600000000000001</v>
+        <v>0.256</v>
       </c>
       <c r="F17" s="8">
-        <v>0.20399999999999999</v>
+        <v>0.204</v>
       </c>
       <c r="G17" s="8">
         <v>0.11</v>
       </c>
       <c r="H17" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.2">
+    <row r="18">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="8">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="C18" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="D18" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="E18" s="8">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="F18" s="11">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="G18" s="8">
         <v>0.03</v>
       </c>
       <c r="H18" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.2">
+    <row r="19">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="8">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="C19" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="D19" s="8">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="E19" s="8">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="F19" s="8">
         <v>0.04</v>
       </c>
       <c r="G19" s="8">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="H19" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.2">
+    <row r="20">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="8">
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="C20" s="8">
-        <v>7.3999999999999996E-2</v>
+        <v>0.074</v>
       </c>
       <c r="D20" s="8">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="E20" s="8">
         <v>0.105</v>
       </c>
       <c r="F20" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="G20" s="8">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="H20" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.2">
+    <row r="21">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -981,25 +966,25 @@
         <v>0.09</v>
       </c>
       <c r="D21" s="8">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="E21" s="8">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="F21" s="8">
-        <v>0.11899999999999999</v>
+        <v>0.119</v>
       </c>
       <c r="G21" s="8">
-        <v>7.6999999999999999E-2</v>
+        <v>0.077</v>
       </c>
       <c r="H21" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.2">
+    <row r="22">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1010,41 +995,41 @@
       <c r="H22" s="10"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="13.2">
+    <row r="23">
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="8">
-        <v>0.82699999999999996</v>
+        <v>0.827</v>
       </c>
       <c r="C23" s="8">
-        <v>0.84499999999999997</v>
+        <v>0.845</v>
       </c>
       <c r="D23" s="8">
-        <v>0.89100000000000001</v>
+        <v>0.891</v>
       </c>
       <c r="E23" s="8">
-        <v>0.85299999999999998</v>
+        <v>0.853</v>
       </c>
       <c r="F23" s="8">
-        <v>0.80900000000000005</v>
+        <v>0.809</v>
       </c>
       <c r="G23" s="8">
-        <v>0.88600000000000001</v>
+        <v>0.886</v>
       </c>
       <c r="H23" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.2">
+    <row r="24">
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="8">
-        <v>0.13700000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="C24" s="8">
         <v>0.129</v>
@@ -1053,138 +1038,138 @@
         <v>0.08</v>
       </c>
       <c r="E24" s="8">
-        <v>0.10299999999999999</v>
+        <v>0.103</v>
       </c>
       <c r="F24" s="8">
         <v>0.151</v>
       </c>
       <c r="G24" s="8">
-        <v>8.7999999999999995E-2</v>
+        <v>0.088</v>
       </c>
       <c r="H24" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.2">
+    <row r="25">
       <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="C25" s="8">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="D25" s="8">
         <v>0.02</v>
       </c>
       <c r="E25" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="F25" s="8">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="G25" s="8">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="H25" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.2">
+    <row r="26">
       <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="C26" s="8">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="D26" s="8">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
       <c r="E26" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="F26" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="G26" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="H26" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.2">
+    <row r="27">
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="8">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="C27" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="D27" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="E27" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="F27" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="G27" s="8">
         <v>0.02</v>
       </c>
       <c r="H27" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.2">
+    <row r="28">
       <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="C28" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="D28" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="E28" s="8">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="F28" s="8">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="G28" s="8">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="H28" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.2">
+    <row r="29">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1194,7 +1179,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" ht="13.2">
+    <row r="30">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
@@ -1217,13 +1202,13 @@
         <v>18</v>
       </c>
       <c r="H30" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.2">
+    <row r="31">
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
@@ -1246,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="H31" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.2">
+    <row r="32">
       <c r="A32" s="7" t="s">
         <v>12</v>
       </c>
@@ -1275,13 +1260,13 @@
         <v>18</v>
       </c>
       <c r="H32" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.2">
+    <row r="33">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
@@ -1304,13 +1289,13 @@
         <v>18</v>
       </c>
       <c r="H33" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.2">
+    <row r="34">
       <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
@@ -1333,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="H34" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13.2">
+    <row r="35">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
@@ -1362,206 +1347,206 @@
         <v>18</v>
       </c>
       <c r="H35" s="10">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.2">
+    <row r="36">
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" ht="13.2">
+    <row r="37">
       <c r="A37" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="8">
-        <v>0.70099999999999996</v>
+        <v>0.701</v>
       </c>
       <c r="C37" s="8">
-        <v>0.74299999999999999</v>
+        <v>0.743</v>
       </c>
       <c r="D37" s="8">
-        <v>0.80800000000000005</v>
+        <v>0.808</v>
       </c>
       <c r="E37" s="8">
-        <v>0.69499999999999995</v>
+        <v>0.695</v>
       </c>
       <c r="F37" s="8">
         <v>0.755</v>
       </c>
       <c r="G37" s="8">
-        <v>0.80700000000000005</v>
+        <v>0.807</v>
       </c>
       <c r="H37" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.2">
+    <row r="38">
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="8">
-        <v>0.23100000000000001</v>
+        <v>0.231</v>
       </c>
       <c r="C38" s="8">
         <v>0.21</v>
       </c>
       <c r="D38" s="8">
-        <v>0.14799999999999999</v>
+        <v>0.148</v>
       </c>
       <c r="E38" s="8">
         <v>0.245</v>
       </c>
       <c r="F38" s="8">
-        <v>0.21199999999999999</v>
+        <v>0.212</v>
       </c>
       <c r="G38" s="8">
-        <v>0.14199999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="H38" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.2">
+    <row r="39">
       <c r="A39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="8">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="C39" s="8">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="D39" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="E39" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="F39" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="G39" s="8">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="H39" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.2">
+    <row r="40">
       <c r="A40" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="8">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="C40" s="8">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="D40" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="E40" s="8">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="F40" s="8">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="G40" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="H40" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.2">
+    <row r="41">
       <c r="A41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="8">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="C41" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="D41" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="E41" s="8">
         <v>0.06</v>
       </c>
       <c r="F41" s="8">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="G41" s="8">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="H41" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13.2">
+    <row r="42">
       <c r="A42" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="8">
-        <v>9.0999999999999998E-2</v>
+        <v>0.091</v>
       </c>
       <c r="C42" s="8">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
       <c r="D42" s="8">
-        <v>6.9000000000000006E-2</v>
+        <v>0.069</v>
       </c>
       <c r="E42" s="8">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="F42" s="8">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="G42" s="8">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
       <c r="H42" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.2">
+    <row r="43">
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:9" ht="13.2">
+    <row r="44">
       <c r="A44" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="8">
-        <v>0.64800000000000002</v>
+        <v>0.648</v>
       </c>
       <c r="C44" s="8">
-        <v>0.68799999999999994</v>
+        <v>0.688</v>
       </c>
       <c r="D44" s="8">
-        <v>0.77400000000000002</v>
+        <v>0.774</v>
       </c>
       <c r="E44" s="8">
         <v>0.628</v>
@@ -1573,191 +1558,191 @@
         <v>0.755</v>
       </c>
       <c r="H44" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13.2">
+    <row r="45">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="8">
-        <v>0.26500000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="C45" s="8">
         <v>0.25</v>
       </c>
       <c r="D45" s="8">
-        <v>0.16200000000000001</v>
+        <v>0.162</v>
       </c>
       <c r="E45" s="8">
-        <v>0.29299999999999998</v>
+        <v>0.293</v>
       </c>
       <c r="F45" s="8">
-        <v>0.23699999999999999</v>
+        <v>0.237</v>
       </c>
       <c r="G45" s="8">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="H45" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.2">
+    <row r="46">
       <c r="A46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="C46" s="8">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="D46" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="E46" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="F46" s="11">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="G46" s="8">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="H46" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.2">
+    <row r="47">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="C47" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="D47" s="8">
         <v>0.04</v>
       </c>
       <c r="E47" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="F47" s="8">
         <v>0.04</v>
       </c>
       <c r="G47" s="8">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="H47" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.2">
+    <row r="48">
       <c r="A48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="8">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="C48" s="8">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="D48" s="8">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="E48" s="8">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="F48" s="8">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="G48" s="8">
-        <v>8.8999999999999996E-2</v>
+        <v>0.089</v>
       </c>
       <c r="H48" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.2">
+    <row r="49">
       <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="8">
-        <v>0.13100000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="C49" s="8">
-        <v>0.10100000000000001</v>
+        <v>0.101</v>
       </c>
       <c r="D49" s="8">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="E49" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="F49" s="8">
-        <v>0.11600000000000001</v>
+        <v>0.116</v>
       </c>
       <c r="G49" s="8">
-        <v>9.9000000000000005E-2</v>
+        <v>0.099</v>
       </c>
       <c r="H49" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.2">
+    <row r="50">
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" ht="13.2">
+    <row r="51">
       <c r="A51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="8">
-        <v>0.77400000000000002</v>
+        <v>0.774</v>
       </c>
       <c r="C51" s="8">
-        <v>0.79900000000000004</v>
+        <v>0.799</v>
       </c>
       <c r="D51" s="8">
-        <v>0.86099999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="E51" s="8">
         <v>0.78</v>
       </c>
       <c r="F51" s="11">
-        <v>0.80500000000000005</v>
+        <v>0.805</v>
       </c>
       <c r="G51" s="8">
-        <v>0.88200000000000001</v>
+        <v>0.882</v>
       </c>
       <c r="H51" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.2">
+    <row r="52">
       <c r="A52" s="7" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1750,7 @@
         <v>0.189</v>
       </c>
       <c r="C52" s="8">
-        <v>0.16800000000000001</v>
+        <v>0.168</v>
       </c>
       <c r="D52" s="8">
         <v>0.111</v>
@@ -1774,139 +1759,139 @@
         <v>0.182</v>
       </c>
       <c r="F52" s="8">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="G52" s="8">
-        <v>8.5999999999999993E-2</v>
+        <v>0.086</v>
       </c>
       <c r="H52" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.2">
+    <row r="53">
       <c r="A53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="C53" s="8">
         <v>0.03</v>
       </c>
       <c r="D53" s="8">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="E53" s="8">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="F53" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="G53" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="H53" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13.2">
+    <row r="54">
       <c r="A54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="C54" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="D54" s="8">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="E54" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="F54" s="8">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="G54" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="H54" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13.2">
+    <row r="55">
       <c r="A55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="C55" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="D55" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="E55" s="8">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="F55" s="8">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="G55" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="H55" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13.2">
+    <row r="56">
       <c r="A56" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="8">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="C56" s="8">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="D56" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="E56" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="F56" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="G56" s="8">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="H56" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13.2">
+    <row r="57">
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" ht="13.8">
+    <row r="58">
       <c r="A58" s="7" t="s">
         <v>9</v>
       </c>
@@ -1917,7 +1902,7 @@
         <v>18</v>
       </c>
       <c r="D58" s="12">
-        <v>0.57299999999999995</v>
+        <v>0.573</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>18</v>
@@ -1926,16 +1911,16 @@
         <v>18</v>
       </c>
       <c r="G58" s="13">
-        <v>0.54500000000000004</v>
+        <v>0.545</v>
       </c>
       <c r="H58" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="13.8">
+    <row r="59">
       <c r="A59" s="7" t="s">
         <v>11</v>
       </c>
@@ -1946,7 +1931,7 @@
         <v>18</v>
       </c>
       <c r="D59" s="12">
-        <v>0.34599999999999997</v>
+        <v>0.346</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>18</v>
@@ -1958,13 +1943,13 @@
         <v>0.318</v>
       </c>
       <c r="H59" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13.8">
+    <row r="60">
       <c r="A60" s="7" t="s">
         <v>12</v>
       </c>
@@ -1975,7 +1960,7 @@
         <v>18</v>
       </c>
       <c r="D60" s="12">
-        <v>7.1999999999999995E-2</v>
+        <v>0.072</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>18</v>
@@ -1987,13 +1972,13 @@
         <v>0.114</v>
       </c>
       <c r="H60" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="13.8">
+    <row r="61">
       <c r="A61" s="7" t="s">
         <v>13</v>
       </c>
@@ -2013,16 +1998,16 @@
         <v>18</v>
       </c>
       <c r="G61" s="13">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="H61" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="13.8">
+    <row r="62">
       <c r="A62" s="7" t="s">
         <v>14</v>
       </c>
@@ -2042,16 +2027,16 @@
         <v>18</v>
       </c>
       <c r="G62" s="13">
-        <v>9.0999999999999998E-2</v>
+        <v>0.091</v>
       </c>
       <c r="H62" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13.8">
+    <row r="63">
       <c r="A63" s="7" t="s">
         <v>15</v>
       </c>
@@ -2062,7 +2047,7 @@
         <v>18</v>
       </c>
       <c r="D63" s="12">
-        <v>0.17899999999999999</v>
+        <v>0.179</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>18</v>
@@ -2074,229 +2059,229 @@
         <v>0.159</v>
       </c>
       <c r="H63" s="10">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13.2">
+    <row r="64">
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="1:9" ht="13.2">
+    <row r="65">
       <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B65" s="8">
-        <v>0.66500000000000004</v>
+        <v>0.665</v>
       </c>
       <c r="C65" s="8">
-        <v>0.71299999999999997</v>
+        <v>0.713</v>
       </c>
       <c r="D65" s="8">
         <v>0.749</v>
       </c>
       <c r="E65" s="8">
-        <v>0.67700000000000005</v>
+        <v>0.677</v>
       </c>
       <c r="F65" s="8">
-        <v>0.70299999999999996</v>
+        <v>0.703</v>
       </c>
       <c r="G65" s="8">
-        <v>0.77500000000000002</v>
+        <v>0.775</v>
       </c>
       <c r="H65" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="13.2">
+    <row r="66">
       <c r="A66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="8">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="C66" s="8">
-        <v>0.24199999999999999</v>
+        <v>0.242</v>
       </c>
       <c r="D66" s="8">
-        <v>0.19800000000000001</v>
+        <v>0.198</v>
       </c>
       <c r="E66" s="8">
-        <v>0.26600000000000001</v>
+        <v>0.266</v>
       </c>
       <c r="F66" s="8">
         <v>0.26</v>
       </c>
       <c r="G66" s="8">
-        <v>0.17699999999999999</v>
+        <v>0.177</v>
       </c>
       <c r="H66" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.2">
+    <row r="67">
       <c r="A67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="8">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="C67" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="D67" s="8">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="E67" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="F67" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="G67" s="8">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="H67" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="13.2">
+    <row r="68">
       <c r="A68" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="C68" s="8">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="D68" s="8">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="E68" s="8">
-        <v>8.5999999999999993E-2</v>
+        <v>0.086</v>
       </c>
       <c r="F68" s="8">
-        <v>7.0999999999999994E-2</v>
+        <v>0.071</v>
       </c>
       <c r="G68" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="H68" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="13.2">
+    <row r="69">
       <c r="A69" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="8">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="C69" s="8">
         <v>0.05</v>
       </c>
       <c r="D69" s="8">
-        <v>5.2999999999999999E-2</v>
+        <v>0.053</v>
       </c>
       <c r="E69" s="8">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="F69" s="8">
-        <v>5.2999999999999999E-2</v>
+        <v>0.053</v>
       </c>
       <c r="G69" s="8">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="H69" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13.2">
+    <row r="70">
       <c r="A70" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="8">
-        <v>8.8999999999999996E-2</v>
+        <v>0.089</v>
       </c>
       <c r="C70" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="D70" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>0.079</v>
       </c>
       <c r="E70" s="8">
-        <v>7.8E-2</v>
+        <v>0.078</v>
       </c>
       <c r="F70" s="8">
         <v>0.08</v>
       </c>
       <c r="G70" s="8">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
       <c r="H70" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="13.2">
+    <row r="71">
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9" ht="13.2">
+    <row r="72">
       <c r="A72" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="8">
-        <v>0.58599999999999997</v>
+        <v>0.586</v>
       </c>
       <c r="C72" s="8">
-        <v>0.67300000000000004</v>
+        <v>0.673</v>
       </c>
       <c r="D72" s="8">
-        <v>0.71199999999999997</v>
+        <v>0.712</v>
       </c>
       <c r="E72" s="8">
-        <v>0.63600000000000001</v>
+        <v>0.636</v>
       </c>
       <c r="F72" s="8">
-        <v>0.64200000000000002</v>
+        <v>0.642</v>
       </c>
       <c r="G72" s="8">
         <v>0.753</v>
       </c>
       <c r="H72" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.2">
+    <row r="73">
       <c r="A73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="8">
-        <v>0.32700000000000001</v>
+        <v>0.327</v>
       </c>
       <c r="C73" s="8">
         <v>0.27</v>
@@ -2305,117 +2290,117 @@
         <v>0.216</v>
       </c>
       <c r="E73" s="8">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="F73" s="8">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="G73" s="8">
         <v>0.2</v>
       </c>
       <c r="H73" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.2">
+    <row r="74">
       <c r="A74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="8">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="C74" s="8">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="D74" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="E74" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="F74" s="8">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="G74" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="H74" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.2">
+    <row r="75">
       <c r="A75" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B75" s="8">
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="C75" s="8">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="D75" s="8">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="E75" s="8">
         <v>0.114</v>
       </c>
       <c r="F75" s="8">
-        <v>8.6999999999999994E-2</v>
+        <v>0.087</v>
       </c>
       <c r="G75" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="H75" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13.2">
+    <row r="76">
       <c r="A76" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="8">
-        <v>8.6999999999999994E-2</v>
+        <v>0.087</v>
       </c>
       <c r="C76" s="8">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="D76" s="8">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="E76" s="8">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
       <c r="F76" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="G76" s="8">
-        <v>6.3E-2</v>
+        <v>0.063</v>
       </c>
       <c r="H76" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="13.2">
+    <row r="77">
       <c r="A77" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B77" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="C77" s="8">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="D77" s="8">
         <v>0.112</v>
@@ -2427,25 +2412,25 @@
         <v>0.121</v>
       </c>
       <c r="G77" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0.093</v>
       </c>
       <c r="H77" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="13.2">
+    <row r="78">
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="1:9" ht="13.2">
+    <row r="79">
       <c r="A79" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B79" s="8">
-        <v>0.71099999999999997</v>
+        <v>0.711</v>
       </c>
       <c r="C79" s="8">
         <v>0.754</v>
@@ -2454,22 +2439,22 @@
         <v>0.81</v>
       </c>
       <c r="E79" s="8">
-        <v>0.71799999999999997</v>
+        <v>0.718</v>
       </c>
       <c r="F79" s="8">
         <v>0.77</v>
       </c>
       <c r="G79" s="8">
-        <v>0.82499999999999996</v>
+        <v>0.825</v>
       </c>
       <c r="H79" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="13.2">
+    <row r="80">
       <c r="A80" s="7" t="s">
         <v>11</v>
       </c>
@@ -2477,86 +2462,86 @@
         <v>0.245</v>
       </c>
       <c r="C80" s="8">
-        <v>0.21199999999999999</v>
+        <v>0.212</v>
       </c>
       <c r="D80" s="8">
         <v>0.154</v>
       </c>
       <c r="E80" s="8">
-        <v>0.24199999999999999</v>
+        <v>0.242</v>
       </c>
       <c r="F80" s="8">
-        <v>0.21199999999999999</v>
+        <v>0.212</v>
       </c>
       <c r="G80" s="8">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="H80" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="13.2">
+    <row r="81">
       <c r="A81" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="C81" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="D81" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="E81" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="F81" s="8">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="G81" s="8">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="H81" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="13.2">
+    <row r="82">
       <c r="A82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="C82" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="D82" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="E82" s="8">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="F82" s="8">
-        <v>5.2999999999999999E-2</v>
+        <v>0.053</v>
       </c>
       <c r="G82" s="8">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="H82" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="13.2">
+    <row r="83">
       <c r="A83" s="7" t="s">
         <v>14</v>
       </c>
@@ -2564,61 +2549,61 @@
         <v>0.05</v>
       </c>
       <c r="C83" s="11">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="D83" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="E83" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="F83" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="G83" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="H83" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="13.2">
+    <row r="84">
       <c r="A84" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B84" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="C84" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="D84" s="8">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="E84" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="F84" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="G84" s="8">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="H84" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="13.2">
+    <row r="85">
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="1:9" ht="13.8">
+    <row r="86">
       <c r="A86" s="7" t="s">
         <v>9</v>
       </c>
@@ -2629,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="D86" s="13">
-        <v>0.44700000000000001</v>
+        <v>0.447</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>18</v>
@@ -2638,16 +2623,16 @@
         <v>18</v>
       </c>
       <c r="G86" s="12">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="H86" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="13.8">
+    <row r="87">
       <c r="A87" s="7" t="s">
         <v>11</v>
       </c>
@@ -2658,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="D87" s="13">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>18</v>
@@ -2667,16 +2652,16 @@
         <v>18</v>
       </c>
       <c r="G87" s="12">
-        <v>0.53800000000000003</v>
+        <v>0.538</v>
       </c>
       <c r="H87" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="13.8">
+    <row r="88">
       <c r="A88" s="7" t="s">
         <v>12</v>
       </c>
@@ -2687,7 +2672,7 @@
         <v>18</v>
       </c>
       <c r="D88" s="13">
-        <v>6.9000000000000006E-2</v>
+        <v>0.069</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>18</v>
@@ -2696,16 +2681,16 @@
         <v>18</v>
       </c>
       <c r="G88" s="12">
-        <v>0.10299999999999999</v>
+        <v>0.103</v>
       </c>
       <c r="H88" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="13.8">
+    <row r="89">
       <c r="A89" s="7" t="s">
         <v>13</v>
       </c>
@@ -2716,7 +2701,7 @@
         <v>18</v>
       </c>
       <c r="D89" s="13">
-        <v>0.14199999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>18</v>
@@ -2728,13 +2713,13 @@
         <v>0.154</v>
       </c>
       <c r="H89" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="13.8">
+    <row r="90">
       <c r="A90" s="7" t="s">
         <v>14</v>
       </c>
@@ -2745,7 +2730,7 @@
         <v>18</v>
       </c>
       <c r="D90" s="13">
-        <v>0.14399999999999999</v>
+        <v>0.144</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>18</v>
@@ -2754,16 +2739,16 @@
         <v>18</v>
       </c>
       <c r="G90" s="12">
-        <v>0.25600000000000001</v>
+        <v>0.256</v>
       </c>
       <c r="H90" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="13.8">
+    <row r="91">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
@@ -2786,51 +2771,51 @@
         <v>0.308</v>
       </c>
       <c r="H91" s="10">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="13.2">
+    <row r="92">
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="1:9" ht="13.2">
+    <row r="93">
       <c r="A93" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="8">
-        <v>0.68200000000000005</v>
+        <v>0.682</v>
       </c>
       <c r="C93" s="8">
-        <v>0.69199999999999995</v>
+        <v>0.692</v>
       </c>
       <c r="D93" s="8">
-        <v>0.73799999999999999</v>
+        <v>0.738</v>
       </c>
       <c r="E93" s="8">
         <v>0.629</v>
       </c>
       <c r="F93" s="8">
-        <v>0.71299999999999997</v>
+        <v>0.713</v>
       </c>
       <c r="G93" s="8">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="H93" s="9">
-        <v>6</v>
-      </c>
-      <c r="I93" s="9" t="s">
+        <v>0.756</v>
+      </c>
+      <c r="H93" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="I93" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="13.2">
+    <row r="94">
       <c r="A94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B94" s="8">
-        <v>0.22700000000000001</v>
+        <v>0.227</v>
       </c>
       <c r="C94" s="8">
         <v>0.24</v>
@@ -2839,138 +2824,138 @@
         <v>0.187</v>
       </c>
       <c r="E94" s="8">
-        <v>0.27400000000000002</v>
+        <v>0.274</v>
       </c>
       <c r="F94" s="8">
-        <v>0.23400000000000001</v>
+        <v>0.234</v>
       </c>
       <c r="G94" s="8">
-        <v>0.16900000000000001</v>
+        <v>0.169</v>
       </c>
       <c r="H94" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="13.2">
+    <row r="95">
       <c r="A95" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B95" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="C95" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="D95" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="E95" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="F95" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="G95" s="8">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="H95" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="13.2">
+    <row r="96">
       <c r="A96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B96" s="8">
-        <v>6.7000000000000004E-2</v>
+        <v>0.067</v>
       </c>
       <c r="C96" s="8">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="D96" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="E96" s="8">
-        <v>9.7000000000000003E-2</v>
+        <v>0.097</v>
       </c>
       <c r="F96" s="8">
-        <v>7.8E-2</v>
+        <v>0.078</v>
       </c>
       <c r="G96" s="8">
         <v>0.06</v>
       </c>
       <c r="H96" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="13.2">
+    <row r="97">
       <c r="A97" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B97" s="8">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="C97" s="8">
-        <v>5.2999999999999999E-2</v>
+        <v>0.053</v>
       </c>
       <c r="D97" s="8">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="E97" s="8">
-        <v>7.6999999999999999E-2</v>
+        <v>0.077</v>
       </c>
       <c r="F97" s="8">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="G97" s="8">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="H97" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="13.2">
+    <row r="98">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B98" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>0.079</v>
       </c>
       <c r="C98" s="8">
-        <v>7.6999999999999999E-2</v>
+        <v>0.077</v>
       </c>
       <c r="D98" s="8">
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="E98" s="8">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="F98" s="8">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="G98" s="8">
-        <v>6.3E-2</v>
+        <v>0.063</v>
       </c>
       <c r="H98" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="13.2">
+    <row r="99">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -2980,94 +2965,94 @@
       <c r="H99" s="10"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" spans="1:9" ht="13.2">
+    <row r="100">
       <c r="A100" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B100" s="8">
-        <v>0.64200000000000002</v>
+        <v>0.642</v>
       </c>
       <c r="C100" s="8">
         <v>0.67</v>
       </c>
       <c r="D100" s="8">
-        <v>0.71099999999999997</v>
+        <v>0.711</v>
       </c>
       <c r="E100" s="8">
-        <v>0.57099999999999995</v>
+        <v>0.571</v>
       </c>
       <c r="F100" s="8">
-        <v>0.68200000000000005</v>
+        <v>0.682</v>
       </c>
       <c r="G100" s="8">
-        <v>0.73099999999999998</v>
+        <v>0.731</v>
       </c>
       <c r="H100" s="10">
-        <v>6</v>
-      </c>
-      <c r="I100" s="9" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="I100" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="13.2">
+    <row r="101">
       <c r="A101" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B101" s="8">
-        <v>0.26300000000000001</v>
+        <v>0.263</v>
       </c>
       <c r="C101" s="8">
-        <v>0.25900000000000001</v>
+        <v>0.259</v>
       </c>
       <c r="D101" s="8">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="E101" s="8">
-        <v>0.33200000000000002</v>
+        <v>0.332</v>
       </c>
       <c r="F101" s="8">
-        <v>0.26300000000000001</v>
+        <v>0.263</v>
       </c>
       <c r="G101" s="8">
         <v>0.191</v>
       </c>
       <c r="H101" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="13.2">
+    <row r="102">
       <c r="A102" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B102" s="8">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="C102" s="8">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="D102" s="8">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="E102" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="F102" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="G102" s="8">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="H102" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="13.2">
+    <row r="103">
       <c r="A103" s="7" t="s">
         <v>13</v>
       </c>
@@ -3075,28 +3060,28 @@
         <v>0.08</v>
       </c>
       <c r="C103" s="8">
-        <v>6.7000000000000004E-2</v>
+        <v>0.067</v>
       </c>
       <c r="D103" s="8">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="E103" s="8">
-        <v>9.1999999999999998E-2</v>
+        <v>0.092</v>
       </c>
       <c r="F103" s="8">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
       <c r="G103" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="H103" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I103" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="13.2">
+    <row r="104">
       <c r="A104" s="7" t="s">
         <v>14</v>
       </c>
@@ -3104,28 +3089,28 @@
         <v>0.06</v>
       </c>
       <c r="C104" s="8">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="D104" s="8">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="E104" s="8">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="F104" s="8">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="G104" s="8">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="H104" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I104" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="13.2">
+    <row r="105">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
@@ -3133,28 +3118,28 @@
         <v>0.1</v>
       </c>
       <c r="C105" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>0.093</v>
       </c>
       <c r="D105" s="8">
-        <v>0.10100000000000001</v>
+        <v>0.101</v>
       </c>
       <c r="E105" s="8">
-        <v>7.6999999999999999E-2</v>
+        <v>0.077</v>
       </c>
       <c r="F105" s="11">
-        <v>7.8E-2</v>
+        <v>0.078</v>
       </c>
       <c r="G105" s="8">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="H105" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="13.2">
+    <row r="106">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -3164,105 +3149,105 @@
       <c r="H106" s="10"/>
       <c r="I106" s="9"/>
     </row>
-    <row r="107" spans="1:9" ht="13.2">
+    <row r="107">
       <c r="A107" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B107" s="8">
-        <v>0.69599999999999995</v>
+        <v>0.696</v>
       </c>
       <c r="C107" s="8">
-        <v>0.71699999999999997</v>
+        <v>0.717</v>
       </c>
       <c r="D107" s="8">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="E107" s="8">
-        <v>0.68600000000000005</v>
+        <v>0.686</v>
       </c>
       <c r="F107" s="8">
         <v>0.747</v>
       </c>
       <c r="G107" s="8">
-        <v>0.80600000000000005</v>
+        <v>0.806</v>
       </c>
       <c r="H107" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="13.2">
+    <row r="108">
       <c r="A108" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="8">
-        <v>0.22700000000000001</v>
+        <v>0.227</v>
       </c>
       <c r="C108" s="8">
         <v>0.218</v>
       </c>
       <c r="D108" s="8">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="E108" s="8">
         <v>0.216</v>
       </c>
       <c r="F108" s="8">
-        <v>0.20599999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="G108" s="8">
         <v>0.126</v>
       </c>
       <c r="H108" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="13.2">
+    <row r="109">
       <c r="A109" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="8">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="C109" s="8">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="D109" s="8">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="E109" s="8">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="F109" s="8">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="G109" s="8">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="H109" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I109" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="13.2">
+    <row r="110">
       <c r="A110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B110" s="8">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
       <c r="C110" s="8">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="D110" s="8">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="E110" s="8">
         <v>0.108</v>
@@ -3271,45 +3256,45 @@
         <v>0.08</v>
       </c>
       <c r="G110" s="8">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="H110" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="13.2">
+    <row r="111">
       <c r="A111" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B111" s="8">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="C111" s="8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="D111" s="8">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="E111" s="8">
-        <v>8.7999999999999995E-2</v>
+        <v>0.088</v>
       </c>
       <c r="F111" s="8">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="G111" s="8">
         <v>0.04</v>
       </c>
       <c r="H111" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="13.2">
+    <row r="112">
       <c r="A112" s="7" t="s">
         <v>15</v>
       </c>
@@ -3317,28 +3302,28 @@
         <v>0.06</v>
       </c>
       <c r="C112" s="8">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="D112" s="8">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="E112" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="F112" s="8">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="G112" s="8">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="H112" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="13.2">
+    <row r="113">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -3348,7 +3333,7 @@
       <c r="H113" s="10"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114" spans="1:9" ht="13.2">
+    <row r="114">
       <c r="B114" s="9" t="s">
         <v>18</v>
       </c>
@@ -3368,13 +3353,13 @@
         <v>18</v>
       </c>
       <c r="H114" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I114" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="13.2">
+    <row r="115">
       <c r="B115" s="9" t="s">
         <v>18</v>
       </c>
@@ -3394,13 +3379,13 @@
         <v>18</v>
       </c>
       <c r="H115" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I115" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="13.2">
+    <row r="116">
       <c r="B116" s="9" t="s">
         <v>18</v>
       </c>
@@ -3420,13 +3405,13 @@
         <v>18</v>
       </c>
       <c r="H116" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="13.2">
+    <row r="117">
       <c r="B117" s="9" t="s">
         <v>18</v>
       </c>
@@ -3446,13 +3431,13 @@
         <v>18</v>
       </c>
       <c r="H117" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="13.2">
+    <row r="118">
       <c r="B118" s="9" t="s">
         <v>18</v>
       </c>
@@ -3472,13 +3457,13 @@
         <v>18</v>
       </c>
       <c r="H118" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="13.2">
+    <row r="119">
       <c r="B119" s="9" t="s">
         <v>18</v>
       </c>
@@ -3498,25 +3483,25 @@
         <v>18</v>
       </c>
       <c r="H119" s="10">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="I119" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="13.2">
+    <row r="120">
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="1:9" ht="13.8">
-      <c r="A121" s="14" t="s">
+    <row r="121">
+      <c r="A121" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="12">
-        <v>0.64400000000000002</v>
+        <v>0.644</v>
       </c>
       <c r="C121" s="12">
-        <v>0.69299999999999995</v>
+        <v>0.693</v>
       </c>
       <c r="D121" s="12">
         <v>0.749</v>
@@ -3537,27 +3522,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="13.8">
-      <c r="A122" s="14" t="s">
+    <row r="122">
+      <c r="A122" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="12">
-        <v>0.26800000000000002</v>
+        <v>0.268</v>
       </c>
       <c r="C122" s="12">
-        <v>0.24399999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="D122" s="12">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="E122" s="12">
-        <v>0.29199999999999998</v>
+        <v>0.292</v>
       </c>
       <c r="F122" s="12">
         <v>0.255</v>
       </c>
       <c r="G122" s="12">
-        <v>0.17599999999999999</v>
+        <v>0.176</v>
       </c>
       <c r="H122" s="9" t="s">
         <v>10</v>
@@ -3566,15 +3551,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="13.8">
-      <c r="A123" s="14" t="s">
+    <row r="123">
+      <c r="A123" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B123" s="12">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="C123" s="12">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="D123" s="12">
         <v>0.03</v>
@@ -3583,10 +3568,10 @@
         <v>0.04</v>
       </c>
       <c r="F123" s="12">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="G123" s="12">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="H123" s="9" t="s">
         <v>10</v>
@@ -3595,27 +3580,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="13.8">
-      <c r="A124" s="14" t="s">
+    <row r="124">
+      <c r="A124" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B124" s="12">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="C124" s="12">
-        <v>5.2999999999999999E-2</v>
+        <v>0.053</v>
       </c>
       <c r="D124" s="12">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="E124" s="12">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="F124" s="12">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="G124" s="12">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>10</v>
@@ -3624,27 +3609,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="13.8">
-      <c r="A125" s="14" t="s">
+    <row r="125">
+      <c r="A125" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B125" s="12">
-        <v>7.9000000000000001E-2</v>
+        <v>0.079</v>
       </c>
       <c r="C125" s="12">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="D125" s="12">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="E125" s="12">
-        <v>7.6999999999999999E-2</v>
+        <v>0.077</v>
       </c>
       <c r="F125" s="12">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="G125" s="12">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>10</v>
@@ -3653,18 +3638,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="13.8">
-      <c r="A126" s="14" t="s">
+    <row r="126">
+      <c r="A126" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B126" s="12">
         <v>0.121</v>
       </c>
       <c r="C126" s="12">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="D126" s="12">
-        <v>9.7000000000000003E-2</v>
+        <v>0.097</v>
       </c>
       <c r="E126" s="12">
         <v>0.122</v>
@@ -3673,7 +3658,7 @@
         <v>0.109</v>
       </c>
       <c r="G126" s="12">
-        <v>8.5000000000000006E-2</v>
+        <v>0.085</v>
       </c>
       <c r="H126" s="9" t="s">
         <v>10</v>
@@ -3682,7 +3667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="13.2">
+    <row r="127">
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -3692,7 +3677,7 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="1:9" ht="13.2">
+    <row r="128">
       <c r="A128" s="7" t="s">
         <v>9</v>
       </c>
@@ -3700,19 +3685,19 @@
         <v>0.75</v>
       </c>
       <c r="C128" s="8">
-        <v>0.77600000000000002</v>
+        <v>0.776</v>
       </c>
       <c r="D128" s="8">
-        <v>0.83099999999999996</v>
+        <v>0.831</v>
       </c>
       <c r="E128" s="8">
-        <v>0.75700000000000001</v>
+        <v>0.757</v>
       </c>
       <c r="F128" s="8">
-        <v>0.78100000000000003</v>
+        <v>0.781</v>
       </c>
       <c r="G128" s="8">
-        <v>0.84799999999999998</v>
+        <v>0.848</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>10</v>
@@ -3721,12 +3706,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="13.2">
+    <row r="129">
       <c r="A129" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B129" s="8">
-        <v>0.20200000000000001</v>
+        <v>0.202</v>
       </c>
       <c r="C129" s="8">
         <v>0.185</v>
@@ -3750,27 +3735,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="13.2">
+    <row r="130">
       <c r="A130" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B130" s="8">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="C130" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="D130" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="E130" s="8">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="F130" s="8">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="G130" s="8">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="H130" s="9" t="s">
         <v>10</v>
@@ -3779,12 +3764,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="13.2">
+    <row r="131">
       <c r="A131" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B131" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="C131" s="8">
         <v>0.04</v>
@@ -3793,13 +3778,13 @@
         <v>0.03</v>
       </c>
       <c r="E131" s="8">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="F131" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="G131" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>10</v>
@@ -3808,27 +3793,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="13.2">
+    <row r="132">
       <c r="A132" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B132" s="8">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="C132" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="D132" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="E132" s="8">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="F132" s="8">
         <v>0.04</v>
       </c>
       <c r="G132" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>10</v>
@@ -3837,27 +3822,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="13.2">
+    <row r="133">
       <c r="A133" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B133" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="C133" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="D133" s="8">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="E133" s="8">
         <v>0.04</v>
       </c>
       <c r="F133" s="8">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="G133" s="8">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>10</v>
@@ -3866,7 +3851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="13.8">
+    <row r="134">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="12"/>
@@ -3876,7 +3861,7 @@
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
     </row>
-    <row r="135" spans="1:9" ht="13.8">
+    <row r="135">
       <c r="A135" s="7" t="s">
         <v>9</v>
       </c>
@@ -3896,7 +3881,7 @@
         <v>18</v>
       </c>
       <c r="G135" s="13">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>10</v>
@@ -3905,7 +3890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="13.8">
+    <row r="136">
       <c r="A136" s="7" t="s">
         <v>11</v>
       </c>
@@ -3925,7 +3910,7 @@
         <v>18</v>
       </c>
       <c r="G136" s="13">
-        <v>0.47599999999999998</v>
+        <v>0.476</v>
       </c>
       <c r="H136" s="9" t="s">
         <v>10</v>
@@ -3934,7 +3919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="13.8">
+    <row r="137">
       <c r="A137" s="7" t="s">
         <v>12</v>
       </c>
@@ -3945,7 +3930,7 @@
         <v>18</v>
       </c>
       <c r="D137" s="12">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>18</v>
@@ -3954,7 +3939,7 @@
         <v>18</v>
       </c>
       <c r="G137" s="13">
-        <v>0.10299999999999999</v>
+        <v>0.103</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>10</v>
@@ -3963,7 +3948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="13.8">
+    <row r="138">
       <c r="A138" s="7" t="s">
         <v>13</v>
       </c>
@@ -3983,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="G138" s="13">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="H138" s="9" t="s">
         <v>10</v>
@@ -3992,7 +3977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="13.8">
+    <row r="139">
       <c r="A139" s="7" t="s">
         <v>14</v>
       </c>
@@ -4003,7 +3988,7 @@
         <v>18</v>
       </c>
       <c r="D139" s="12">
-        <v>0.13700000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>18</v>
@@ -4021,7 +4006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="13.2">
+    <row r="140">
       <c r="A140" s="7" t="s">
         <v>15</v>
       </c>
@@ -4032,7 +4017,7 @@
         <v>18</v>
       </c>
       <c r="D140" s="8">
-        <v>0.19600000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>18</v>
@@ -4043,3868 +4028,3862 @@
       <c r="G140" s="8">
         <v>0.27</v>
       </c>
-      <c r="H140" s="9" t="s">
+      <c r="H140" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I140" s="9" t="s">
+      <c r="I140" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="13.2">
+    <row r="141">
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
     </row>
-    <row r="142" spans="1:9" ht="13.2">
+    <row r="142">
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
     </row>
-    <row r="143" spans="1:9" ht="13.2">
+    <row r="143">
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
     </row>
-    <row r="144" spans="1:9" ht="13.2">
+    <row r="144">
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
     </row>
-    <row r="145" spans="8:9" ht="13.2">
+    <row r="145">
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
     </row>
-    <row r="146" spans="8:9" ht="13.2">
+    <row r="146">
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
     </row>
-    <row r="147" spans="8:9" ht="13.2">
+    <row r="147">
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
     </row>
-    <row r="148" spans="8:9" ht="13.2">
+    <row r="148">
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
     </row>
-    <row r="149" spans="8:9" ht="13.2">
+    <row r="149">
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
     </row>
-    <row r="150" spans="8:9" ht="13.2">
+    <row r="150">
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="8:9" ht="13.2">
+    <row r="151">
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
     </row>
-    <row r="152" spans="8:9" ht="13.2">
+    <row r="152">
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
     </row>
-    <row r="153" spans="8:9" ht="13.2">
+    <row r="153">
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
     </row>
-    <row r="154" spans="8:9" ht="13.2">
+    <row r="154">
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
     </row>
-    <row r="155" spans="8:9" ht="13.2">
+    <row r="155">
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
     </row>
-    <row r="156" spans="8:9" ht="13.2">
+    <row r="156">
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" spans="8:9" ht="13.2">
+    <row r="157">
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
     </row>
-    <row r="158" spans="8:9" ht="13.2">
+    <row r="158">
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
     </row>
-    <row r="159" spans="8:9" ht="13.2">
+    <row r="159">
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160" spans="8:9" ht="13.2">
+    <row r="160">
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161" spans="8:9" ht="13.2">
+    <row r="161">
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
     </row>
-    <row r="162" spans="8:9" ht="13.2">
+    <row r="162">
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
     </row>
-    <row r="163" spans="8:9" ht="13.2">
+    <row r="163">
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
     </row>
-    <row r="164" spans="8:9" ht="13.2">
+    <row r="164">
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
     </row>
-    <row r="165" spans="8:9" ht="13.2">
+    <row r="165">
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
     </row>
-    <row r="166" spans="8:9" ht="13.2">
+    <row r="166">
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
     </row>
-    <row r="167" spans="8:9" ht="13.2">
+    <row r="167">
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168" spans="8:9" ht="13.2">
+    <row r="168">
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
     </row>
-    <row r="169" spans="8:9" ht="13.2">
+    <row r="169">
       <c r="H169" s="9"/>
       <c r="I169" s="9"/>
     </row>
-    <row r="170" spans="8:9" ht="13.2">
+    <row r="170">
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
     </row>
-    <row r="171" spans="8:9" ht="13.2">
+    <row r="171">
       <c r="H171" s="9"/>
       <c r="I171" s="9"/>
     </row>
-    <row r="172" spans="8:9" ht="13.2">
+    <row r="172">
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
     </row>
-    <row r="173" spans="8:9" ht="13.2">
+    <row r="173">
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
     </row>
-    <row r="174" spans="8:9" ht="13.2">
+    <row r="174">
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
     </row>
-    <row r="175" spans="8:9" ht="13.2">
+    <row r="175">
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
     </row>
-    <row r="176" spans="8:9" ht="13.2">
+    <row r="176">
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
     </row>
-    <row r="177" spans="8:9" ht="13.2">
+    <row r="177">
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
     </row>
-    <row r="178" spans="8:9" ht="13.2">
+    <row r="178">
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
     </row>
-    <row r="179" spans="8:9" ht="13.2">
+    <row r="179">
       <c r="H179" s="9"/>
       <c r="I179" s="9"/>
     </row>
-    <row r="180" spans="8:9" ht="13.2">
+    <row r="180">
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
     </row>
-    <row r="181" spans="8:9" ht="13.2">
+    <row r="181">
       <c r="H181" s="9"/>
       <c r="I181" s="9"/>
     </row>
-    <row r="182" spans="8:9" ht="13.2">
+    <row r="182">
       <c r="H182" s="9"/>
       <c r="I182" s="9"/>
     </row>
-    <row r="183" spans="8:9" ht="13.2">
+    <row r="183">
       <c r="H183" s="9"/>
       <c r="I183" s="9"/>
     </row>
-    <row r="184" spans="8:9" ht="13.2">
+    <row r="184">
       <c r="H184" s="9"/>
       <c r="I184" s="9"/>
     </row>
-    <row r="185" spans="8:9" ht="13.2">
+    <row r="185">
       <c r="H185" s="9"/>
       <c r="I185" s="9"/>
     </row>
-    <row r="186" spans="8:9" ht="13.2">
+    <row r="186">
       <c r="H186" s="9"/>
       <c r="I186" s="9"/>
     </row>
-    <row r="187" spans="8:9" ht="13.2">
+    <row r="187">
       <c r="H187" s="9"/>
       <c r="I187" s="9"/>
     </row>
-    <row r="188" spans="8:9" ht="13.2">
+    <row r="188">
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
     </row>
-    <row r="189" spans="8:9" ht="13.2">
+    <row r="189">
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
     </row>
-    <row r="190" spans="8:9" ht="13.2">
+    <row r="190">
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
     </row>
-    <row r="191" spans="8:9" ht="13.2">
+    <row r="191">
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
     </row>
-    <row r="192" spans="8:9" ht="13.2">
+    <row r="192">
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
     </row>
-    <row r="193" spans="8:9" ht="13.2">
+    <row r="193">
       <c r="H193" s="9"/>
       <c r="I193" s="9"/>
     </row>
-    <row r="194" spans="8:9" ht="13.2">
+    <row r="194">
       <c r="H194" s="9"/>
       <c r="I194" s="9"/>
     </row>
-    <row r="195" spans="8:9" ht="13.2">
+    <row r="195">
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
     </row>
-    <row r="196" spans="8:9" ht="13.2">
+    <row r="196">
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
     </row>
-    <row r="197" spans="8:9" ht="13.2">
+    <row r="197">
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
     </row>
-    <row r="198" spans="8:9" ht="13.2">
+    <row r="198">
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
     </row>
-    <row r="199" spans="8:9" ht="13.2">
+    <row r="199">
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
     </row>
-    <row r="200" spans="8:9" ht="13.2">
+    <row r="200">
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
     </row>
-    <row r="201" spans="8:9" ht="13.2">
+    <row r="201">
       <c r="H201" s="9"/>
       <c r="I201" s="9"/>
     </row>
-    <row r="202" spans="8:9" ht="13.2">
+    <row r="202">
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
     </row>
-    <row r="203" spans="8:9" ht="13.2">
+    <row r="203">
       <c r="H203" s="9"/>
       <c r="I203" s="9"/>
     </row>
-    <row r="204" spans="8:9" ht="13.2">
+    <row r="204">
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
     </row>
-    <row r="205" spans="8:9" ht="13.2">
+    <row r="205">
       <c r="H205" s="9"/>
       <c r="I205" s="9"/>
     </row>
-    <row r="206" spans="8:9" ht="13.2">
+    <row r="206">
       <c r="H206" s="9"/>
       <c r="I206" s="9"/>
     </row>
-    <row r="207" spans="8:9" ht="13.2">
+    <row r="207">
       <c r="H207" s="9"/>
       <c r="I207" s="9"/>
     </row>
-    <row r="208" spans="8:9" ht="13.2">
+    <row r="208">
       <c r="H208" s="9"/>
       <c r="I208" s="9"/>
     </row>
-    <row r="209" spans="8:9" ht="13.2">
+    <row r="209">
       <c r="H209" s="9"/>
       <c r="I209" s="9"/>
     </row>
-    <row r="210" spans="8:9" ht="13.2">
+    <row r="210">
       <c r="H210" s="9"/>
       <c r="I210" s="9"/>
     </row>
-    <row r="211" spans="8:9" ht="13.2">
+    <row r="211">
       <c r="H211" s="9"/>
       <c r="I211" s="9"/>
     </row>
-    <row r="212" spans="8:9" ht="13.2">
+    <row r="212">
       <c r="H212" s="9"/>
       <c r="I212" s="9"/>
     </row>
-    <row r="213" spans="8:9" ht="13.2">
+    <row r="213">
       <c r="H213" s="9"/>
       <c r="I213" s="9"/>
     </row>
-    <row r="214" spans="8:9" ht="13.2">
+    <row r="214">
       <c r="H214" s="9"/>
       <c r="I214" s="9"/>
     </row>
-    <row r="215" spans="8:9" ht="13.2">
+    <row r="215">
       <c r="H215" s="9"/>
       <c r="I215" s="9"/>
     </row>
-    <row r="216" spans="8:9" ht="13.2">
+    <row r="216">
       <c r="H216" s="9"/>
       <c r="I216" s="9"/>
     </row>
-    <row r="217" spans="8:9" ht="13.2">
+    <row r="217">
       <c r="H217" s="9"/>
       <c r="I217" s="9"/>
     </row>
-    <row r="218" spans="8:9" ht="13.2">
+    <row r="218">
       <c r="H218" s="9"/>
       <c r="I218" s="9"/>
     </row>
-    <row r="219" spans="8:9" ht="13.2">
+    <row r="219">
       <c r="H219" s="9"/>
       <c r="I219" s="9"/>
     </row>
-    <row r="220" spans="8:9" ht="13.2">
+    <row r="220">
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
     </row>
-    <row r="221" spans="8:9" ht="13.2">
+    <row r="221">
       <c r="H221" s="9"/>
       <c r="I221" s="9"/>
     </row>
-    <row r="222" spans="8:9" ht="13.2">
+    <row r="222">
       <c r="H222" s="9"/>
       <c r="I222" s="9"/>
     </row>
-    <row r="223" spans="8:9" ht="13.2">
+    <row r="223">
       <c r="H223" s="9"/>
       <c r="I223" s="9"/>
     </row>
-    <row r="224" spans="8:9" ht="13.2">
+    <row r="224">
       <c r="H224" s="9"/>
       <c r="I224" s="9"/>
     </row>
-    <row r="225" spans="8:9" ht="13.2">
+    <row r="225">
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
     </row>
-    <row r="226" spans="8:9" ht="13.2">
+    <row r="226">
       <c r="H226" s="9"/>
       <c r="I226" s="9"/>
     </row>
-    <row r="227" spans="8:9" ht="13.2">
+    <row r="227">
       <c r="H227" s="9"/>
       <c r="I227" s="9"/>
     </row>
-    <row r="228" spans="8:9" ht="13.2">
+    <row r="228">
       <c r="H228" s="9"/>
       <c r="I228" s="9"/>
     </row>
-    <row r="229" spans="8:9" ht="13.2">
+    <row r="229">
       <c r="H229" s="9"/>
       <c r="I229" s="9"/>
     </row>
-    <row r="230" spans="8:9" ht="13.2">
+    <row r="230">
       <c r="H230" s="9"/>
       <c r="I230" s="9"/>
     </row>
-    <row r="231" spans="8:9" ht="13.2">
+    <row r="231">
       <c r="H231" s="9"/>
       <c r="I231" s="9"/>
     </row>
-    <row r="232" spans="8:9" ht="13.2">
+    <row r="232">
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
     </row>
-    <row r="233" spans="8:9" ht="13.2">
+    <row r="233">
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
     </row>
-    <row r="234" spans="8:9" ht="13.2">
+    <row r="234">
       <c r="H234" s="9"/>
       <c r="I234" s="9"/>
     </row>
-    <row r="235" spans="8:9" ht="13.2">
+    <row r="235">
       <c r="H235" s="9"/>
       <c r="I235" s="9"/>
     </row>
-    <row r="236" spans="8:9" ht="13.2">
+    <row r="236">
       <c r="H236" s="9"/>
       <c r="I236" s="9"/>
     </row>
-    <row r="237" spans="8:9" ht="13.2">
+    <row r="237">
       <c r="H237" s="9"/>
       <c r="I237" s="9"/>
     </row>
-    <row r="238" spans="8:9" ht="13.2">
+    <row r="238">
       <c r="H238" s="9"/>
       <c r="I238" s="9"/>
     </row>
-    <row r="239" spans="8:9" ht="13.2">
+    <row r="239">
       <c r="H239" s="9"/>
       <c r="I239" s="9"/>
     </row>
-    <row r="240" spans="8:9" ht="13.2">
+    <row r="240">
       <c r="H240" s="9"/>
       <c r="I240" s="9"/>
     </row>
-    <row r="241" spans="8:9" ht="13.2">
+    <row r="241">
       <c r="H241" s="9"/>
       <c r="I241" s="9"/>
     </row>
-    <row r="242" spans="8:9" ht="13.2">
+    <row r="242">
       <c r="H242" s="9"/>
       <c r="I242" s="9"/>
     </row>
-    <row r="243" spans="8:9" ht="13.2">
+    <row r="243">
       <c r="H243" s="9"/>
       <c r="I243" s="9"/>
     </row>
-    <row r="244" spans="8:9" ht="13.2">
+    <row r="244">
       <c r="H244" s="9"/>
       <c r="I244" s="9"/>
     </row>
-    <row r="245" spans="8:9" ht="13.2">
+    <row r="245">
       <c r="H245" s="9"/>
       <c r="I245" s="9"/>
     </row>
-    <row r="246" spans="8:9" ht="13.2">
+    <row r="246">
       <c r="H246" s="9"/>
       <c r="I246" s="9"/>
     </row>
-    <row r="247" spans="8:9" ht="13.2">
+    <row r="247">
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
     </row>
-    <row r="248" spans="8:9" ht="13.2">
+    <row r="248">
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
     </row>
-    <row r="249" spans="8:9" ht="13.2">
+    <row r="249">
       <c r="H249" s="9"/>
       <c r="I249" s="9"/>
     </row>
-    <row r="250" spans="8:9" ht="13.2">
+    <row r="250">
       <c r="H250" s="9"/>
       <c r="I250" s="9"/>
     </row>
-    <row r="251" spans="8:9" ht="13.2">
+    <row r="251">
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
     </row>
-    <row r="252" spans="8:9" ht="13.2">
+    <row r="252">
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
     </row>
-    <row r="253" spans="8:9" ht="13.2">
+    <row r="253">
       <c r="H253" s="9"/>
       <c r="I253" s="9"/>
     </row>
-    <row r="254" spans="8:9" ht="13.2">
+    <row r="254">
       <c r="H254" s="9"/>
       <c r="I254" s="9"/>
     </row>
-    <row r="255" spans="8:9" ht="13.2">
+    <row r="255">
       <c r="H255" s="9"/>
       <c r="I255" s="9"/>
     </row>
-    <row r="256" spans="8:9" ht="13.2">
+    <row r="256">
       <c r="H256" s="9"/>
       <c r="I256" s="9"/>
     </row>
-    <row r="257" spans="8:9" ht="13.2">
+    <row r="257">
       <c r="H257" s="9"/>
       <c r="I257" s="9"/>
     </row>
-    <row r="258" spans="8:9" ht="13.2">
+    <row r="258">
       <c r="H258" s="9"/>
       <c r="I258" s="9"/>
     </row>
-    <row r="259" spans="8:9" ht="13.2">
+    <row r="259">
       <c r="H259" s="9"/>
       <c r="I259" s="9"/>
     </row>
-    <row r="260" spans="8:9" ht="13.2">
+    <row r="260">
       <c r="H260" s="9"/>
       <c r="I260" s="9"/>
     </row>
-    <row r="261" spans="8:9" ht="13.2">
+    <row r="261">
       <c r="H261" s="9"/>
       <c r="I261" s="9"/>
     </row>
-    <row r="262" spans="8:9" ht="13.2">
+    <row r="262">
       <c r="H262" s="9"/>
       <c r="I262" s="9"/>
     </row>
-    <row r="263" spans="8:9" ht="13.2">
+    <row r="263">
       <c r="H263" s="9"/>
       <c r="I263" s="9"/>
     </row>
-    <row r="264" spans="8:9" ht="13.2">
+    <row r="264">
       <c r="H264" s="9"/>
       <c r="I264" s="9"/>
     </row>
-    <row r="265" spans="8:9" ht="13.2">
+    <row r="265">
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
     </row>
-    <row r="266" spans="8:9" ht="13.2">
+    <row r="266">
       <c r="H266" s="9"/>
       <c r="I266" s="9"/>
     </row>
-    <row r="267" spans="8:9" ht="13.2">
+    <row r="267">
       <c r="H267" s="9"/>
       <c r="I267" s="9"/>
     </row>
-    <row r="268" spans="8:9" ht="13.2">
+    <row r="268">
       <c r="H268" s="9"/>
       <c r="I268" s="9"/>
     </row>
-    <row r="269" spans="8:9" ht="13.2">
+    <row r="269">
       <c r="H269" s="9"/>
       <c r="I269" s="9"/>
     </row>
-    <row r="270" spans="8:9" ht="13.2">
+    <row r="270">
       <c r="H270" s="9"/>
       <c r="I270" s="9"/>
     </row>
-    <row r="271" spans="8:9" ht="13.2">
+    <row r="271">
       <c r="H271" s="9"/>
       <c r="I271" s="9"/>
     </row>
-    <row r="272" spans="8:9" ht="13.2">
+    <row r="272">
       <c r="H272" s="9"/>
       <c r="I272" s="9"/>
     </row>
-    <row r="273" spans="8:9" ht="13.2">
+    <row r="273">
       <c r="H273" s="9"/>
       <c r="I273" s="9"/>
     </row>
-    <row r="274" spans="8:9" ht="13.2">
+    <row r="274">
       <c r="H274" s="9"/>
       <c r="I274" s="9"/>
     </row>
-    <row r="275" spans="8:9" ht="13.2">
+    <row r="275">
       <c r="H275" s="9"/>
       <c r="I275" s="9"/>
     </row>
-    <row r="276" spans="8:9" ht="13.2">
+    <row r="276">
       <c r="H276" s="9"/>
       <c r="I276" s="9"/>
     </row>
-    <row r="277" spans="8:9" ht="13.2">
+    <row r="277">
       <c r="H277" s="9"/>
       <c r="I277" s="9"/>
     </row>
-    <row r="278" spans="8:9" ht="13.2">
+    <row r="278">
       <c r="H278" s="9"/>
       <c r="I278" s="9"/>
     </row>
-    <row r="279" spans="8:9" ht="13.2">
+    <row r="279">
       <c r="H279" s="9"/>
       <c r="I279" s="9"/>
     </row>
-    <row r="280" spans="8:9" ht="13.2">
+    <row r="280">
       <c r="H280" s="9"/>
       <c r="I280" s="9"/>
     </row>
-    <row r="281" spans="8:9" ht="13.2">
+    <row r="281">
       <c r="H281" s="9"/>
       <c r="I281" s="9"/>
     </row>
-    <row r="282" spans="8:9" ht="13.2">
+    <row r="282">
       <c r="H282" s="9"/>
       <c r="I282" s="9"/>
     </row>
-    <row r="283" spans="8:9" ht="13.2">
+    <row r="283">
       <c r="H283" s="9"/>
       <c r="I283" s="9"/>
     </row>
-    <row r="284" spans="8:9" ht="13.2">
+    <row r="284">
       <c r="H284" s="9"/>
       <c r="I284" s="9"/>
     </row>
-    <row r="285" spans="8:9" ht="13.2">
+    <row r="285">
       <c r="H285" s="9"/>
       <c r="I285" s="9"/>
     </row>
-    <row r="286" spans="8:9" ht="13.2">
+    <row r="286">
       <c r="H286" s="9"/>
       <c r="I286" s="9"/>
     </row>
-    <row r="287" spans="8:9" ht="13.2">
+    <row r="287">
       <c r="H287" s="9"/>
       <c r="I287" s="9"/>
     </row>
-    <row r="288" spans="8:9" ht="13.2">
+    <row r="288">
       <c r="H288" s="9"/>
       <c r="I288" s="9"/>
     </row>
-    <row r="289" spans="8:9" ht="13.2">
+    <row r="289">
       <c r="H289" s="9"/>
       <c r="I289" s="9"/>
     </row>
-    <row r="290" spans="8:9" ht="13.2">
+    <row r="290">
       <c r="H290" s="9"/>
       <c r="I290" s="9"/>
     </row>
-    <row r="291" spans="8:9" ht="13.2">
+    <row r="291">
       <c r="H291" s="9"/>
       <c r="I291" s="9"/>
     </row>
-    <row r="292" spans="8:9" ht="13.2">
+    <row r="292">
       <c r="H292" s="9"/>
       <c r="I292" s="9"/>
     </row>
-    <row r="293" spans="8:9" ht="13.2">
+    <row r="293">
       <c r="H293" s="9"/>
       <c r="I293" s="9"/>
     </row>
-    <row r="294" spans="8:9" ht="13.2">
+    <row r="294">
       <c r="H294" s="9"/>
       <c r="I294" s="9"/>
     </row>
-    <row r="295" spans="8:9" ht="13.2">
+    <row r="295">
       <c r="H295" s="9"/>
       <c r="I295" s="9"/>
     </row>
-    <row r="296" spans="8:9" ht="13.2">
+    <row r="296">
       <c r="H296" s="9"/>
       <c r="I296" s="9"/>
     </row>
-    <row r="297" spans="8:9" ht="13.2">
+    <row r="297">
       <c r="H297" s="9"/>
       <c r="I297" s="9"/>
     </row>
-    <row r="298" spans="8:9" ht="13.2">
+    <row r="298">
       <c r="H298" s="9"/>
       <c r="I298" s="9"/>
     </row>
-    <row r="299" spans="8:9" ht="13.2">
+    <row r="299">
       <c r="H299" s="9"/>
       <c r="I299" s="9"/>
     </row>
-    <row r="300" spans="8:9" ht="13.2">
+    <row r="300">
       <c r="H300" s="9"/>
       <c r="I300" s="9"/>
     </row>
-    <row r="301" spans="8:9" ht="13.2">
+    <row r="301">
       <c r="H301" s="9"/>
       <c r="I301" s="9"/>
     </row>
-    <row r="302" spans="8:9" ht="13.2">
+    <row r="302">
       <c r="H302" s="9"/>
       <c r="I302" s="9"/>
     </row>
-    <row r="303" spans="8:9" ht="13.2">
+    <row r="303">
       <c r="H303" s="9"/>
       <c r="I303" s="9"/>
     </row>
-    <row r="304" spans="8:9" ht="13.2">
+    <row r="304">
       <c r="H304" s="9"/>
       <c r="I304" s="9"/>
     </row>
-    <row r="305" spans="8:9" ht="13.2">
+    <row r="305">
       <c r="H305" s="9"/>
       <c r="I305" s="9"/>
     </row>
-    <row r="306" spans="8:9" ht="13.2">
+    <row r="306">
       <c r="H306" s="9"/>
       <c r="I306" s="9"/>
     </row>
-    <row r="307" spans="8:9" ht="13.2">
+    <row r="307">
       <c r="H307" s="9"/>
       <c r="I307" s="9"/>
     </row>
-    <row r="308" spans="8:9" ht="13.2">
+    <row r="308">
       <c r="H308" s="9"/>
       <c r="I308" s="9"/>
     </row>
-    <row r="309" spans="8:9" ht="13.2">
+    <row r="309">
       <c r="H309" s="9"/>
       <c r="I309" s="9"/>
     </row>
-    <row r="310" spans="8:9" ht="13.2">
+    <row r="310">
       <c r="H310" s="9"/>
       <c r="I310" s="9"/>
     </row>
-    <row r="311" spans="8:9" ht="13.2">
+    <row r="311">
       <c r="H311" s="9"/>
       <c r="I311" s="9"/>
     </row>
-    <row r="312" spans="8:9" ht="13.2">
+    <row r="312">
       <c r="H312" s="9"/>
       <c r="I312" s="9"/>
     </row>
-    <row r="313" spans="8:9" ht="13.2">
+    <row r="313">
       <c r="H313" s="9"/>
       <c r="I313" s="9"/>
     </row>
-    <row r="314" spans="8:9" ht="13.2">
+    <row r="314">
       <c r="H314" s="9"/>
       <c r="I314" s="9"/>
     </row>
-    <row r="315" spans="8:9" ht="13.2">
+    <row r="315">
       <c r="H315" s="9"/>
       <c r="I315" s="9"/>
     </row>
-    <row r="316" spans="8:9" ht="13.2">
+    <row r="316">
       <c r="H316" s="9"/>
       <c r="I316" s="9"/>
     </row>
-    <row r="317" spans="8:9" ht="13.2">
+    <row r="317">
       <c r="H317" s="9"/>
       <c r="I317" s="9"/>
     </row>
-    <row r="318" spans="8:9" ht="13.2">
+    <row r="318">
       <c r="H318" s="9"/>
       <c r="I318" s="9"/>
     </row>
-    <row r="319" spans="8:9" ht="13.2">
+    <row r="319">
       <c r="H319" s="9"/>
       <c r="I319" s="9"/>
     </row>
-    <row r="320" spans="8:9" ht="13.2">
+    <row r="320">
       <c r="H320" s="9"/>
       <c r="I320" s="9"/>
     </row>
-    <row r="321" spans="8:9" ht="13.2">
+    <row r="321">
       <c r="H321" s="9"/>
       <c r="I321" s="9"/>
     </row>
-    <row r="322" spans="8:9" ht="13.2">
+    <row r="322">
       <c r="H322" s="9"/>
       <c r="I322" s="9"/>
     </row>
-    <row r="323" spans="8:9" ht="13.2">
+    <row r="323">
       <c r="H323" s="9"/>
       <c r="I323" s="9"/>
     </row>
-    <row r="324" spans="8:9" ht="13.2">
+    <row r="324">
       <c r="H324" s="9"/>
       <c r="I324" s="9"/>
     </row>
-    <row r="325" spans="8:9" ht="13.2">
+    <row r="325">
       <c r="H325" s="9"/>
       <c r="I325" s="9"/>
     </row>
-    <row r="326" spans="8:9" ht="13.2">
+    <row r="326">
       <c r="H326" s="9"/>
       <c r="I326" s="9"/>
     </row>
-    <row r="327" spans="8:9" ht="13.2">
+    <row r="327">
       <c r="H327" s="9"/>
       <c r="I327" s="9"/>
     </row>
-    <row r="328" spans="8:9" ht="13.2">
+    <row r="328">
       <c r="H328" s="9"/>
       <c r="I328" s="9"/>
     </row>
-    <row r="329" spans="8:9" ht="13.2">
+    <row r="329">
       <c r="H329" s="9"/>
       <c r="I329" s="9"/>
     </row>
-    <row r="330" spans="8:9" ht="13.2">
+    <row r="330">
       <c r="H330" s="9"/>
       <c r="I330" s="9"/>
     </row>
-    <row r="331" spans="8:9" ht="13.2">
+    <row r="331">
       <c r="H331" s="9"/>
       <c r="I331" s="9"/>
     </row>
-    <row r="332" spans="8:9" ht="13.2">
+    <row r="332">
       <c r="H332" s="9"/>
       <c r="I332" s="9"/>
     </row>
-    <row r="333" spans="8:9" ht="13.2">
+    <row r="333">
       <c r="H333" s="9"/>
       <c r="I333" s="9"/>
     </row>
-    <row r="334" spans="8:9" ht="13.2">
+    <row r="334">
       <c r="H334" s="9"/>
       <c r="I334" s="9"/>
     </row>
-    <row r="335" spans="8:9" ht="13.2">
+    <row r="335">
       <c r="H335" s="9"/>
       <c r="I335" s="9"/>
     </row>
-    <row r="336" spans="8:9" ht="13.2">
+    <row r="336">
       <c r="H336" s="9"/>
       <c r="I336" s="9"/>
     </row>
-    <row r="337" spans="8:9" ht="13.2">
+    <row r="337">
       <c r="H337" s="9"/>
       <c r="I337" s="9"/>
     </row>
-    <row r="338" spans="8:9" ht="13.2">
+    <row r="338">
       <c r="H338" s="9"/>
       <c r="I338" s="9"/>
     </row>
-    <row r="339" spans="8:9" ht="13.2">
+    <row r="339">
       <c r="H339" s="9"/>
       <c r="I339" s="9"/>
     </row>
-    <row r="340" spans="8:9" ht="13.2">
+    <row r="340">
       <c r="H340" s="9"/>
       <c r="I340" s="9"/>
     </row>
-    <row r="341" spans="8:9" ht="13.2">
+    <row r="341">
       <c r="H341" s="9"/>
       <c r="I341" s="9"/>
     </row>
-    <row r="342" spans="8:9" ht="13.2">
+    <row r="342">
       <c r="H342" s="9"/>
       <c r="I342" s="9"/>
     </row>
-    <row r="343" spans="8:9" ht="13.2">
+    <row r="343">
       <c r="H343" s="9"/>
       <c r="I343" s="9"/>
     </row>
-    <row r="344" spans="8:9" ht="13.2">
+    <row r="344">
       <c r="H344" s="9"/>
       <c r="I344" s="9"/>
     </row>
-    <row r="345" spans="8:9" ht="13.2">
+    <row r="345">
       <c r="H345" s="9"/>
       <c r="I345" s="9"/>
     </row>
-    <row r="346" spans="8:9" ht="13.2">
+    <row r="346">
       <c r="H346" s="9"/>
       <c r="I346" s="9"/>
     </row>
-    <row r="347" spans="8:9" ht="13.2">
+    <row r="347">
       <c r="H347" s="9"/>
       <c r="I347" s="9"/>
     </row>
-    <row r="348" spans="8:9" ht="13.2">
+    <row r="348">
       <c r="H348" s="9"/>
       <c r="I348" s="9"/>
     </row>
-    <row r="349" spans="8:9" ht="13.2">
+    <row r="349">
       <c r="H349" s="9"/>
       <c r="I349" s="9"/>
     </row>
-    <row r="350" spans="8:9" ht="13.2">
+    <row r="350">
       <c r="H350" s="9"/>
       <c r="I350" s="9"/>
     </row>
-    <row r="351" spans="8:9" ht="13.2">
+    <row r="351">
       <c r="H351" s="9"/>
       <c r="I351" s="9"/>
     </row>
-    <row r="352" spans="8:9" ht="13.2">
+    <row r="352">
       <c r="H352" s="9"/>
       <c r="I352" s="9"/>
     </row>
-    <row r="353" spans="8:9" ht="13.2">
+    <row r="353">
       <c r="H353" s="9"/>
       <c r="I353" s="9"/>
     </row>
-    <row r="354" spans="8:9" ht="13.2">
+    <row r="354">
       <c r="H354" s="9"/>
       <c r="I354" s="9"/>
     </row>
-    <row r="355" spans="8:9" ht="13.2">
+    <row r="355">
       <c r="H355" s="9"/>
       <c r="I355" s="9"/>
     </row>
-    <row r="356" spans="8:9" ht="13.2">
+    <row r="356">
       <c r="H356" s="9"/>
       <c r="I356" s="9"/>
     </row>
-    <row r="357" spans="8:9" ht="13.2">
+    <row r="357">
       <c r="H357" s="9"/>
       <c r="I357" s="9"/>
     </row>
-    <row r="358" spans="8:9" ht="13.2">
+    <row r="358">
       <c r="H358" s="9"/>
       <c r="I358" s="9"/>
     </row>
-    <row r="359" spans="8:9" ht="13.2">
+    <row r="359">
       <c r="H359" s="9"/>
       <c r="I359" s="9"/>
     </row>
-    <row r="360" spans="8:9" ht="13.2">
+    <row r="360">
       <c r="H360" s="9"/>
       <c r="I360" s="9"/>
     </row>
-    <row r="361" spans="8:9" ht="13.2">
+    <row r="361">
       <c r="H361" s="9"/>
       <c r="I361" s="9"/>
     </row>
-    <row r="362" spans="8:9" ht="13.2">
+    <row r="362">
       <c r="H362" s="9"/>
       <c r="I362" s="9"/>
     </row>
-    <row r="363" spans="8:9" ht="13.2">
+    <row r="363">
       <c r="H363" s="9"/>
       <c r="I363" s="9"/>
     </row>
-    <row r="364" spans="8:9" ht="13.2">
+    <row r="364">
       <c r="H364" s="9"/>
       <c r="I364" s="9"/>
     </row>
-    <row r="365" spans="8:9" ht="13.2">
+    <row r="365">
       <c r="H365" s="9"/>
       <c r="I365" s="9"/>
     </row>
-    <row r="366" spans="8:9" ht="13.2">
+    <row r="366">
       <c r="H366" s="9"/>
       <c r="I366" s="9"/>
     </row>
-    <row r="367" spans="8:9" ht="13.2">
+    <row r="367">
       <c r="H367" s="9"/>
       <c r="I367" s="9"/>
     </row>
-    <row r="368" spans="8:9" ht="13.2">
+    <row r="368">
       <c r="H368" s="9"/>
       <c r="I368" s="9"/>
     </row>
-    <row r="369" spans="8:9" ht="13.2">
+    <row r="369">
       <c r="H369" s="9"/>
       <c r="I369" s="9"/>
     </row>
-    <row r="370" spans="8:9" ht="13.2">
+    <row r="370">
       <c r="H370" s="9"/>
       <c r="I370" s="9"/>
     </row>
-    <row r="371" spans="8:9" ht="13.2">
+    <row r="371">
       <c r="H371" s="9"/>
       <c r="I371" s="9"/>
     </row>
-    <row r="372" spans="8:9" ht="13.2">
+    <row r="372">
       <c r="H372" s="9"/>
       <c r="I372" s="9"/>
     </row>
-    <row r="373" spans="8:9" ht="13.2">
+    <row r="373">
       <c r="H373" s="9"/>
       <c r="I373" s="9"/>
     </row>
-    <row r="374" spans="8:9" ht="13.2">
+    <row r="374">
       <c r="H374" s="9"/>
       <c r="I374" s="9"/>
     </row>
-    <row r="375" spans="8:9" ht="13.2">
+    <row r="375">
       <c r="H375" s="9"/>
       <c r="I375" s="9"/>
     </row>
-    <row r="376" spans="8:9" ht="13.2">
+    <row r="376">
       <c r="H376" s="9"/>
       <c r="I376" s="9"/>
     </row>
-    <row r="377" spans="8:9" ht="13.2">
+    <row r="377">
       <c r="H377" s="9"/>
       <c r="I377" s="9"/>
     </row>
-    <row r="378" spans="8:9" ht="13.2">
+    <row r="378">
       <c r="H378" s="9"/>
       <c r="I378" s="9"/>
     </row>
-    <row r="379" spans="8:9" ht="13.2">
+    <row r="379">
       <c r="H379" s="9"/>
       <c r="I379" s="9"/>
     </row>
-    <row r="380" spans="8:9" ht="13.2">
+    <row r="380">
       <c r="H380" s="9"/>
       <c r="I380" s="9"/>
     </row>
-    <row r="381" spans="8:9" ht="13.2">
+    <row r="381">
       <c r="H381" s="9"/>
       <c r="I381" s="9"/>
     </row>
-    <row r="382" spans="8:9" ht="13.2">
+    <row r="382">
       <c r="H382" s="9"/>
       <c r="I382" s="9"/>
     </row>
-    <row r="383" spans="8:9" ht="13.2">
+    <row r="383">
       <c r="H383" s="9"/>
       <c r="I383" s="9"/>
     </row>
-    <row r="384" spans="8:9" ht="13.2">
+    <row r="384">
       <c r="H384" s="9"/>
       <c r="I384" s="9"/>
     </row>
-    <row r="385" spans="8:9" ht="13.2">
+    <row r="385">
       <c r="H385" s="9"/>
       <c r="I385" s="9"/>
     </row>
-    <row r="386" spans="8:9" ht="13.2">
+    <row r="386">
       <c r="H386" s="9"/>
       <c r="I386" s="9"/>
     </row>
-    <row r="387" spans="8:9" ht="13.2">
+    <row r="387">
       <c r="H387" s="9"/>
       <c r="I387" s="9"/>
     </row>
-    <row r="388" spans="8:9" ht="13.2">
+    <row r="388">
       <c r="H388" s="9"/>
       <c r="I388" s="9"/>
     </row>
-    <row r="389" spans="8:9" ht="13.2">
+    <row r="389">
       <c r="H389" s="9"/>
       <c r="I389" s="9"/>
     </row>
-    <row r="390" spans="8:9" ht="13.2">
+    <row r="390">
       <c r="H390" s="9"/>
       <c r="I390" s="9"/>
     </row>
-    <row r="391" spans="8:9" ht="13.2">
+    <row r="391">
       <c r="H391" s="9"/>
       <c r="I391" s="9"/>
     </row>
-    <row r="392" spans="8:9" ht="13.2">
+    <row r="392">
       <c r="H392" s="9"/>
       <c r="I392" s="9"/>
     </row>
-    <row r="393" spans="8:9" ht="13.2">
+    <row r="393">
       <c r="H393" s="9"/>
       <c r="I393" s="9"/>
     </row>
-    <row r="394" spans="8:9" ht="13.2">
+    <row r="394">
       <c r="H394" s="9"/>
       <c r="I394" s="9"/>
     </row>
-    <row r="395" spans="8:9" ht="13.2">
+    <row r="395">
       <c r="H395" s="9"/>
       <c r="I395" s="9"/>
     </row>
-    <row r="396" spans="8:9" ht="13.2">
+    <row r="396">
       <c r="H396" s="9"/>
       <c r="I396" s="9"/>
     </row>
-    <row r="397" spans="8:9" ht="13.2">
+    <row r="397">
       <c r="H397" s="9"/>
       <c r="I397" s="9"/>
     </row>
-    <row r="398" spans="8:9" ht="13.2">
+    <row r="398">
       <c r="H398" s="9"/>
       <c r="I398" s="9"/>
     </row>
-    <row r="399" spans="8:9" ht="13.2">
+    <row r="399">
       <c r="H399" s="9"/>
       <c r="I399" s="9"/>
     </row>
-    <row r="400" spans="8:9" ht="13.2">
+    <row r="400">
       <c r="H400" s="9"/>
       <c r="I400" s="9"/>
     </row>
-    <row r="401" spans="8:9" ht="13.2">
+    <row r="401">
       <c r="H401" s="9"/>
       <c r="I401" s="9"/>
     </row>
-    <row r="402" spans="8:9" ht="13.2">
+    <row r="402">
       <c r="H402" s="9"/>
       <c r="I402" s="9"/>
     </row>
-    <row r="403" spans="8:9" ht="13.2">
+    <row r="403">
       <c r="H403" s="9"/>
       <c r="I403" s="9"/>
     </row>
-    <row r="404" spans="8:9" ht="13.2">
+    <row r="404">
       <c r="H404" s="9"/>
       <c r="I404" s="9"/>
     </row>
-    <row r="405" spans="8:9" ht="13.2">
+    <row r="405">
       <c r="H405" s="9"/>
       <c r="I405" s="9"/>
     </row>
-    <row r="406" spans="8:9" ht="13.2">
+    <row r="406">
       <c r="H406" s="9"/>
       <c r="I406" s="9"/>
     </row>
-    <row r="407" spans="8:9" ht="13.2">
+    <row r="407">
       <c r="H407" s="9"/>
       <c r="I407" s="9"/>
     </row>
-    <row r="408" spans="8:9" ht="13.2">
+    <row r="408">
       <c r="H408" s="9"/>
       <c r="I408" s="9"/>
     </row>
-    <row r="409" spans="8:9" ht="13.2">
+    <row r="409">
       <c r="H409" s="9"/>
       <c r="I409" s="9"/>
     </row>
-    <row r="410" spans="8:9" ht="13.2">
+    <row r="410">
       <c r="H410" s="9"/>
       <c r="I410" s="9"/>
     </row>
-    <row r="411" spans="8:9" ht="13.2">
+    <row r="411">
       <c r="H411" s="9"/>
       <c r="I411" s="9"/>
     </row>
-    <row r="412" spans="8:9" ht="13.2">
+    <row r="412">
       <c r="H412" s="9"/>
       <c r="I412" s="9"/>
     </row>
-    <row r="413" spans="8:9" ht="13.2">
+    <row r="413">
       <c r="H413" s="9"/>
       <c r="I413" s="9"/>
     </row>
-    <row r="414" spans="8:9" ht="13.2">
+    <row r="414">
       <c r="H414" s="9"/>
       <c r="I414" s="9"/>
     </row>
-    <row r="415" spans="8:9" ht="13.2">
+    <row r="415">
       <c r="H415" s="9"/>
       <c r="I415" s="9"/>
     </row>
-    <row r="416" spans="8:9" ht="13.2">
+    <row r="416">
       <c r="H416" s="9"/>
       <c r="I416" s="9"/>
     </row>
-    <row r="417" spans="8:9" ht="13.2">
+    <row r="417">
       <c r="H417" s="9"/>
       <c r="I417" s="9"/>
     </row>
-    <row r="418" spans="8:9" ht="13.2">
+    <row r="418">
       <c r="H418" s="9"/>
       <c r="I418" s="9"/>
     </row>
-    <row r="419" spans="8:9" ht="13.2">
+    <row r="419">
       <c r="H419" s="9"/>
       <c r="I419" s="9"/>
     </row>
-    <row r="420" spans="8:9" ht="13.2">
+    <row r="420">
       <c r="H420" s="9"/>
       <c r="I420" s="9"/>
     </row>
-    <row r="421" spans="8:9" ht="13.2">
+    <row r="421">
       <c r="H421" s="9"/>
       <c r="I421" s="9"/>
     </row>
-    <row r="422" spans="8:9" ht="13.2">
+    <row r="422">
       <c r="H422" s="9"/>
       <c r="I422" s="9"/>
     </row>
-    <row r="423" spans="8:9" ht="13.2">
+    <row r="423">
       <c r="H423" s="9"/>
       <c r="I423" s="9"/>
     </row>
-    <row r="424" spans="8:9" ht="13.2">
+    <row r="424">
       <c r="H424" s="9"/>
       <c r="I424" s="9"/>
     </row>
-    <row r="425" spans="8:9" ht="13.2">
+    <row r="425">
       <c r="H425" s="9"/>
       <c r="I425" s="9"/>
     </row>
-    <row r="426" spans="8:9" ht="13.2">
+    <row r="426">
       <c r="H426" s="9"/>
       <c r="I426" s="9"/>
     </row>
-    <row r="427" spans="8:9" ht="13.2">
+    <row r="427">
       <c r="H427" s="9"/>
       <c r="I427" s="9"/>
     </row>
-    <row r="428" spans="8:9" ht="13.2">
+    <row r="428">
       <c r="H428" s="9"/>
       <c r="I428" s="9"/>
     </row>
-    <row r="429" spans="8:9" ht="13.2">
+    <row r="429">
       <c r="H429" s="9"/>
       <c r="I429" s="9"/>
     </row>
-    <row r="430" spans="8:9" ht="13.2">
+    <row r="430">
       <c r="H430" s="9"/>
       <c r="I430" s="9"/>
     </row>
-    <row r="431" spans="8:9" ht="13.2">
+    <row r="431">
       <c r="H431" s="9"/>
       <c r="I431" s="9"/>
     </row>
-    <row r="432" spans="8:9" ht="13.2">
+    <row r="432">
       <c r="H432" s="9"/>
       <c r="I432" s="9"/>
     </row>
-    <row r="433" spans="8:9" ht="13.2">
+    <row r="433">
       <c r="H433" s="9"/>
       <c r="I433" s="9"/>
     </row>
-    <row r="434" spans="8:9" ht="13.2">
+    <row r="434">
       <c r="H434" s="9"/>
       <c r="I434" s="9"/>
     </row>
-    <row r="435" spans="8:9" ht="13.2">
+    <row r="435">
       <c r="H435" s="9"/>
       <c r="I435" s="9"/>
     </row>
-    <row r="436" spans="8:9" ht="13.2">
+    <row r="436">
       <c r="H436" s="9"/>
       <c r="I436" s="9"/>
     </row>
-    <row r="437" spans="8:9" ht="13.2">
+    <row r="437">
       <c r="H437" s="9"/>
       <c r="I437" s="9"/>
     </row>
-    <row r="438" spans="8:9" ht="13.2">
+    <row r="438">
       <c r="H438" s="9"/>
       <c r="I438" s="9"/>
     </row>
-    <row r="439" spans="8:9" ht="13.2">
+    <row r="439">
       <c r="H439" s="9"/>
       <c r="I439" s="9"/>
     </row>
-    <row r="440" spans="8:9" ht="13.2">
+    <row r="440">
       <c r="H440" s="9"/>
       <c r="I440" s="9"/>
     </row>
-    <row r="441" spans="8:9" ht="13.2">
+    <row r="441">
       <c r="H441" s="9"/>
       <c r="I441" s="9"/>
     </row>
-    <row r="442" spans="8:9" ht="13.2">
+    <row r="442">
       <c r="H442" s="9"/>
       <c r="I442" s="9"/>
     </row>
-    <row r="443" spans="8:9" ht="13.2">
+    <row r="443">
       <c r="H443" s="9"/>
       <c r="I443" s="9"/>
     </row>
-    <row r="444" spans="8:9" ht="13.2">
+    <row r="444">
       <c r="H444" s="9"/>
       <c r="I444" s="9"/>
     </row>
-    <row r="445" spans="8:9" ht="13.2">
+    <row r="445">
       <c r="H445" s="9"/>
       <c r="I445" s="9"/>
     </row>
-    <row r="446" spans="8:9" ht="13.2">
+    <row r="446">
       <c r="H446" s="9"/>
       <c r="I446" s="9"/>
     </row>
-    <row r="447" spans="8:9" ht="13.2">
+    <row r="447">
       <c r="H447" s="9"/>
       <c r="I447" s="9"/>
     </row>
-    <row r="448" spans="8:9" ht="13.2">
+    <row r="448">
       <c r="H448" s="9"/>
       <c r="I448" s="9"/>
     </row>
-    <row r="449" spans="8:9" ht="13.2">
+    <row r="449">
       <c r="H449" s="9"/>
       <c r="I449" s="9"/>
     </row>
-    <row r="450" spans="8:9" ht="13.2">
+    <row r="450">
       <c r="H450" s="9"/>
       <c r="I450" s="9"/>
     </row>
-    <row r="451" spans="8:9" ht="13.2">
+    <row r="451">
       <c r="H451" s="9"/>
       <c r="I451" s="9"/>
     </row>
-    <row r="452" spans="8:9" ht="13.2">
+    <row r="452">
       <c r="H452" s="9"/>
       <c r="I452" s="9"/>
     </row>
-    <row r="453" spans="8:9" ht="13.2">
+    <row r="453">
       <c r="H453" s="9"/>
       <c r="I453" s="9"/>
     </row>
-    <row r="454" spans="8:9" ht="13.2">
+    <row r="454">
       <c r="H454" s="9"/>
       <c r="I454" s="9"/>
     </row>
-    <row r="455" spans="8:9" ht="13.2">
+    <row r="455">
       <c r="H455" s="9"/>
       <c r="I455" s="9"/>
     </row>
-    <row r="456" spans="8:9" ht="13.2">
+    <row r="456">
       <c r="H456" s="9"/>
       <c r="I456" s="9"/>
     </row>
-    <row r="457" spans="8:9" ht="13.2">
+    <row r="457">
       <c r="H457" s="9"/>
       <c r="I457" s="9"/>
     </row>
-    <row r="458" spans="8:9" ht="13.2">
+    <row r="458">
       <c r="H458" s="9"/>
       <c r="I458" s="9"/>
     </row>
-    <row r="459" spans="8:9" ht="13.2">
+    <row r="459">
       <c r="H459" s="9"/>
       <c r="I459" s="9"/>
     </row>
-    <row r="460" spans="8:9" ht="13.2">
+    <row r="460">
       <c r="H460" s="9"/>
       <c r="I460" s="9"/>
     </row>
-    <row r="461" spans="8:9" ht="13.2">
+    <row r="461">
       <c r="H461" s="9"/>
       <c r="I461" s="9"/>
     </row>
-    <row r="462" spans="8:9" ht="13.2">
+    <row r="462">
       <c r="H462" s="9"/>
       <c r="I462" s="9"/>
     </row>
-    <row r="463" spans="8:9" ht="13.2">
+    <row r="463">
       <c r="H463" s="9"/>
       <c r="I463" s="9"/>
     </row>
-    <row r="464" spans="8:9" ht="13.2">
+    <row r="464">
       <c r="H464" s="9"/>
       <c r="I464" s="9"/>
     </row>
-    <row r="465" spans="8:9" ht="13.2">
+    <row r="465">
       <c r="H465" s="9"/>
       <c r="I465" s="9"/>
     </row>
-    <row r="466" spans="8:9" ht="13.2">
+    <row r="466">
       <c r="H466" s="9"/>
       <c r="I466" s="9"/>
     </row>
-    <row r="467" spans="8:9" ht="13.2">
+    <row r="467">
       <c r="H467" s="9"/>
       <c r="I467" s="9"/>
     </row>
-    <row r="468" spans="8:9" ht="13.2">
+    <row r="468">
       <c r="H468" s="9"/>
       <c r="I468" s="9"/>
     </row>
-    <row r="469" spans="8:9" ht="13.2">
+    <row r="469">
       <c r="H469" s="9"/>
       <c r="I469" s="9"/>
     </row>
-    <row r="470" spans="8:9" ht="13.2">
+    <row r="470">
       <c r="H470" s="9"/>
       <c r="I470" s="9"/>
     </row>
-    <row r="471" spans="8:9" ht="13.2">
+    <row r="471">
       <c r="H471" s="9"/>
       <c r="I471" s="9"/>
     </row>
-    <row r="472" spans="8:9" ht="13.2">
+    <row r="472">
       <c r="H472" s="9"/>
       <c r="I472" s="9"/>
     </row>
-    <row r="473" spans="8:9" ht="13.2">
+    <row r="473">
       <c r="H473" s="9"/>
       <c r="I473" s="9"/>
     </row>
-    <row r="474" spans="8:9" ht="13.2">
+    <row r="474">
       <c r="H474" s="9"/>
       <c r="I474" s="9"/>
     </row>
-    <row r="475" spans="8:9" ht="13.2">
+    <row r="475">
       <c r="H475" s="9"/>
       <c r="I475" s="9"/>
     </row>
-    <row r="476" spans="8:9" ht="13.2">
+    <row r="476">
       <c r="H476" s="9"/>
       <c r="I476" s="9"/>
     </row>
-    <row r="477" spans="8:9" ht="13.2">
+    <row r="477">
       <c r="H477" s="9"/>
       <c r="I477" s="9"/>
     </row>
-    <row r="478" spans="8:9" ht="13.2">
+    <row r="478">
       <c r="H478" s="9"/>
       <c r="I478" s="9"/>
     </row>
-    <row r="479" spans="8:9" ht="13.2">
+    <row r="479">
       <c r="H479" s="9"/>
       <c r="I479" s="9"/>
     </row>
-    <row r="480" spans="8:9" ht="13.2">
+    <row r="480">
       <c r="H480" s="9"/>
       <c r="I480" s="9"/>
     </row>
-    <row r="481" spans="8:9" ht="13.2">
+    <row r="481">
       <c r="H481" s="9"/>
       <c r="I481" s="9"/>
     </row>
-    <row r="482" spans="8:9" ht="13.2">
+    <row r="482">
       <c r="H482" s="9"/>
       <c r="I482" s="9"/>
     </row>
-    <row r="483" spans="8:9" ht="13.2">
+    <row r="483">
       <c r="H483" s="9"/>
       <c r="I483" s="9"/>
     </row>
-    <row r="484" spans="8:9" ht="13.2">
+    <row r="484">
       <c r="H484" s="9"/>
       <c r="I484" s="9"/>
     </row>
-    <row r="485" spans="8:9" ht="13.2">
+    <row r="485">
       <c r="H485" s="9"/>
       <c r="I485" s="9"/>
     </row>
-    <row r="486" spans="8:9" ht="13.2">
+    <row r="486">
       <c r="H486" s="9"/>
       <c r="I486" s="9"/>
     </row>
-    <row r="487" spans="8:9" ht="13.2">
+    <row r="487">
       <c r="H487" s="9"/>
       <c r="I487" s="9"/>
     </row>
-    <row r="488" spans="8:9" ht="13.2">
+    <row r="488">
       <c r="H488" s="9"/>
       <c r="I488" s="9"/>
     </row>
-    <row r="489" spans="8:9" ht="13.2">
+    <row r="489">
       <c r="H489" s="9"/>
       <c r="I489" s="9"/>
     </row>
-    <row r="490" spans="8:9" ht="13.2">
+    <row r="490">
       <c r="H490" s="9"/>
       <c r="I490" s="9"/>
     </row>
-    <row r="491" spans="8:9" ht="13.2">
+    <row r="491">
       <c r="H491" s="9"/>
       <c r="I491" s="9"/>
     </row>
-    <row r="492" spans="8:9" ht="13.2">
+    <row r="492">
       <c r="H492" s="9"/>
       <c r="I492" s="9"/>
     </row>
-    <row r="493" spans="8:9" ht="13.2">
+    <row r="493">
       <c r="H493" s="9"/>
       <c r="I493" s="9"/>
     </row>
-    <row r="494" spans="8:9" ht="13.2">
+    <row r="494">
       <c r="H494" s="9"/>
       <c r="I494" s="9"/>
     </row>
-    <row r="495" spans="8:9" ht="13.2">
+    <row r="495">
       <c r="H495" s="9"/>
       <c r="I495" s="9"/>
     </row>
-    <row r="496" spans="8:9" ht="13.2">
+    <row r="496">
       <c r="H496" s="9"/>
       <c r="I496" s="9"/>
     </row>
-    <row r="497" spans="8:9" ht="13.2">
+    <row r="497">
       <c r="H497" s="9"/>
       <c r="I497" s="9"/>
     </row>
-    <row r="498" spans="8:9" ht="13.2">
+    <row r="498">
       <c r="H498" s="9"/>
       <c r="I498" s="9"/>
     </row>
-    <row r="499" spans="8:9" ht="13.2">
+    <row r="499">
       <c r="H499" s="9"/>
       <c r="I499" s="9"/>
     </row>
-    <row r="500" spans="8:9" ht="13.2">
+    <row r="500">
       <c r="H500" s="9"/>
       <c r="I500" s="9"/>
     </row>
-    <row r="501" spans="8:9" ht="13.2">
+    <row r="501">
       <c r="H501" s="9"/>
       <c r="I501" s="9"/>
     </row>
-    <row r="502" spans="8:9" ht="13.2">
+    <row r="502">
       <c r="H502" s="9"/>
       <c r="I502" s="9"/>
     </row>
-    <row r="503" spans="8:9" ht="13.2">
+    <row r="503">
       <c r="H503" s="9"/>
       <c r="I503" s="9"/>
     </row>
-    <row r="504" spans="8:9" ht="13.2">
+    <row r="504">
       <c r="H504" s="9"/>
       <c r="I504" s="9"/>
     </row>
-    <row r="505" spans="8:9" ht="13.2">
+    <row r="505">
       <c r="H505" s="9"/>
       <c r="I505" s="9"/>
     </row>
-    <row r="506" spans="8:9" ht="13.2">
+    <row r="506">
       <c r="H506" s="9"/>
       <c r="I506" s="9"/>
     </row>
-    <row r="507" spans="8:9" ht="13.2">
+    <row r="507">
       <c r="H507" s="9"/>
       <c r="I507" s="9"/>
     </row>
-    <row r="508" spans="8:9" ht="13.2">
+    <row r="508">
       <c r="H508" s="9"/>
       <c r="I508" s="9"/>
     </row>
-    <row r="509" spans="8:9" ht="13.2">
+    <row r="509">
       <c r="H509" s="9"/>
       <c r="I509" s="9"/>
     </row>
-    <row r="510" spans="8:9" ht="13.2">
+    <row r="510">
       <c r="H510" s="9"/>
       <c r="I510" s="9"/>
     </row>
-    <row r="511" spans="8:9" ht="13.2">
+    <row r="511">
       <c r="H511" s="9"/>
       <c r="I511" s="9"/>
     </row>
-    <row r="512" spans="8:9" ht="13.2">
+    <row r="512">
       <c r="H512" s="9"/>
       <c r="I512" s="9"/>
     </row>
-    <row r="513" spans="8:9" ht="13.2">
+    <row r="513">
       <c r="H513" s="9"/>
       <c r="I513" s="9"/>
     </row>
-    <row r="514" spans="8:9" ht="13.2">
+    <row r="514">
       <c r="H514" s="9"/>
       <c r="I514" s="9"/>
     </row>
-    <row r="515" spans="8:9" ht="13.2">
+    <row r="515">
       <c r="H515" s="9"/>
       <c r="I515" s="9"/>
     </row>
-    <row r="516" spans="8:9" ht="13.2">
+    <row r="516">
       <c r="H516" s="9"/>
       <c r="I516" s="9"/>
     </row>
-    <row r="517" spans="8:9" ht="13.2">
+    <row r="517">
       <c r="H517" s="9"/>
       <c r="I517" s="9"/>
     </row>
-    <row r="518" spans="8:9" ht="13.2">
+    <row r="518">
       <c r="H518" s="9"/>
       <c r="I518" s="9"/>
     </row>
-    <row r="519" spans="8:9" ht="13.2">
+    <row r="519">
       <c r="H519" s="9"/>
       <c r="I519" s="9"/>
     </row>
-    <row r="520" spans="8:9" ht="13.2">
+    <row r="520">
       <c r="H520" s="9"/>
       <c r="I520" s="9"/>
     </row>
-    <row r="521" spans="8:9" ht="13.2">
+    <row r="521">
       <c r="H521" s="9"/>
       <c r="I521" s="9"/>
     </row>
-    <row r="522" spans="8:9" ht="13.2">
+    <row r="522">
       <c r="H522" s="9"/>
       <c r="I522" s="9"/>
     </row>
-    <row r="523" spans="8:9" ht="13.2">
+    <row r="523">
       <c r="H523" s="9"/>
       <c r="I523" s="9"/>
     </row>
-    <row r="524" spans="8:9" ht="13.2">
+    <row r="524">
       <c r="H524" s="9"/>
       <c r="I524" s="9"/>
     </row>
-    <row r="525" spans="8:9" ht="13.2">
+    <row r="525">
       <c r="H525" s="9"/>
       <c r="I525" s="9"/>
     </row>
-    <row r="526" spans="8:9" ht="13.2">
+    <row r="526">
       <c r="H526" s="9"/>
       <c r="I526" s="9"/>
     </row>
-    <row r="527" spans="8:9" ht="13.2">
+    <row r="527">
       <c r="H527" s="9"/>
       <c r="I527" s="9"/>
     </row>
-    <row r="528" spans="8:9" ht="13.2">
+    <row r="528">
       <c r="H528" s="9"/>
       <c r="I528" s="9"/>
     </row>
-    <row r="529" spans="8:9" ht="13.2">
+    <row r="529">
       <c r="H529" s="9"/>
       <c r="I529" s="9"/>
     </row>
-    <row r="530" spans="8:9" ht="13.2">
+    <row r="530">
       <c r="H530" s="9"/>
       <c r="I530" s="9"/>
     </row>
-    <row r="531" spans="8:9" ht="13.2">
+    <row r="531">
       <c r="H531" s="9"/>
       <c r="I531" s="9"/>
     </row>
-    <row r="532" spans="8:9" ht="13.2">
+    <row r="532">
       <c r="H532" s="9"/>
       <c r="I532" s="9"/>
     </row>
-    <row r="533" spans="8:9" ht="13.2">
+    <row r="533">
       <c r="H533" s="9"/>
       <c r="I533" s="9"/>
     </row>
-    <row r="534" spans="8:9" ht="13.2">
+    <row r="534">
       <c r="H534" s="9"/>
       <c r="I534" s="9"/>
     </row>
-    <row r="535" spans="8:9" ht="13.2">
+    <row r="535">
       <c r="H535" s="9"/>
       <c r="I535" s="9"/>
     </row>
-    <row r="536" spans="8:9" ht="13.2">
+    <row r="536">
       <c r="H536" s="9"/>
       <c r="I536" s="9"/>
     </row>
-    <row r="537" spans="8:9" ht="13.2">
+    <row r="537">
       <c r="H537" s="9"/>
       <c r="I537" s="9"/>
     </row>
-    <row r="538" spans="8:9" ht="13.2">
+    <row r="538">
       <c r="H538" s="9"/>
       <c r="I538" s="9"/>
     </row>
-    <row r="539" spans="8:9" ht="13.2">
+    <row r="539">
       <c r="H539" s="9"/>
       <c r="I539" s="9"/>
     </row>
-    <row r="540" spans="8:9" ht="13.2">
+    <row r="540">
       <c r="H540" s="9"/>
       <c r="I540" s="9"/>
     </row>
-    <row r="541" spans="8:9" ht="13.2">
+    <row r="541">
       <c r="H541" s="9"/>
       <c r="I541" s="9"/>
     </row>
-    <row r="542" spans="8:9" ht="13.2">
+    <row r="542">
       <c r="H542" s="9"/>
       <c r="I542" s="9"/>
     </row>
-    <row r="543" spans="8:9" ht="13.2">
+    <row r="543">
       <c r="H543" s="9"/>
       <c r="I543" s="9"/>
     </row>
-    <row r="544" spans="8:9" ht="13.2">
+    <row r="544">
       <c r="H544" s="9"/>
       <c r="I544" s="9"/>
     </row>
-    <row r="545" spans="8:9" ht="13.2">
+    <row r="545">
       <c r="H545" s="9"/>
       <c r="I545" s="9"/>
     </row>
-    <row r="546" spans="8:9" ht="13.2">
+    <row r="546">
       <c r="H546" s="9"/>
       <c r="I546" s="9"/>
     </row>
-    <row r="547" spans="8:9" ht="13.2">
+    <row r="547">
       <c r="H547" s="9"/>
       <c r="I547" s="9"/>
     </row>
-    <row r="548" spans="8:9" ht="13.2">
+    <row r="548">
       <c r="H548" s="9"/>
       <c r="I548" s="9"/>
     </row>
-    <row r="549" spans="8:9" ht="13.2">
+    <row r="549">
       <c r="H549" s="9"/>
       <c r="I549" s="9"/>
     </row>
-    <row r="550" spans="8:9" ht="13.2">
+    <row r="550">
       <c r="H550" s="9"/>
       <c r="I550" s="9"/>
     </row>
-    <row r="551" spans="8:9" ht="13.2">
+    <row r="551">
       <c r="H551" s="9"/>
       <c r="I551" s="9"/>
     </row>
-    <row r="552" spans="8:9" ht="13.2">
+    <row r="552">
       <c r="H552" s="9"/>
       <c r="I552" s="9"/>
     </row>
-    <row r="553" spans="8:9" ht="13.2">
+    <row r="553">
       <c r="H553" s="9"/>
       <c r="I553" s="9"/>
     </row>
-    <row r="554" spans="8:9" ht="13.2">
+    <row r="554">
       <c r="H554" s="9"/>
       <c r="I554" s="9"/>
     </row>
-    <row r="555" spans="8:9" ht="13.2">
+    <row r="555">
       <c r="H555" s="9"/>
       <c r="I555" s="9"/>
     </row>
-    <row r="556" spans="8:9" ht="13.2">
+    <row r="556">
       <c r="H556" s="9"/>
       <c r="I556" s="9"/>
     </row>
-    <row r="557" spans="8:9" ht="13.2">
+    <row r="557">
       <c r="H557" s="9"/>
       <c r="I557" s="9"/>
     </row>
-    <row r="558" spans="8:9" ht="13.2">
+    <row r="558">
       <c r="H558" s="9"/>
       <c r="I558" s="9"/>
     </row>
-    <row r="559" spans="8:9" ht="13.2">
+    <row r="559">
       <c r="H559" s="9"/>
       <c r="I559" s="9"/>
     </row>
-    <row r="560" spans="8:9" ht="13.2">
+    <row r="560">
       <c r="H560" s="9"/>
       <c r="I560" s="9"/>
     </row>
-    <row r="561" spans="8:9" ht="13.2">
+    <row r="561">
       <c r="H561" s="9"/>
       <c r="I561" s="9"/>
     </row>
-    <row r="562" spans="8:9" ht="13.2">
+    <row r="562">
       <c r="H562" s="9"/>
       <c r="I562" s="9"/>
     </row>
-    <row r="563" spans="8:9" ht="13.2">
+    <row r="563">
       <c r="H563" s="9"/>
       <c r="I563" s="9"/>
     </row>
-    <row r="564" spans="8:9" ht="13.2">
+    <row r="564">
       <c r="H564" s="9"/>
       <c r="I564" s="9"/>
     </row>
-    <row r="565" spans="8:9" ht="13.2">
+    <row r="565">
       <c r="H565" s="9"/>
       <c r="I565" s="9"/>
     </row>
-    <row r="566" spans="8:9" ht="13.2">
+    <row r="566">
       <c r="H566" s="9"/>
       <c r="I566" s="9"/>
     </row>
-    <row r="567" spans="8:9" ht="13.2">
+    <row r="567">
       <c r="H567" s="9"/>
       <c r="I567" s="9"/>
     </row>
-    <row r="568" spans="8:9" ht="13.2">
+    <row r="568">
       <c r="H568" s="9"/>
       <c r="I568" s="9"/>
     </row>
-    <row r="569" spans="8:9" ht="13.2">
+    <row r="569">
       <c r="H569" s="9"/>
       <c r="I569" s="9"/>
     </row>
-    <row r="570" spans="8:9" ht="13.2">
+    <row r="570">
       <c r="H570" s="9"/>
       <c r="I570" s="9"/>
     </row>
-    <row r="571" spans="8:9" ht="13.2">
+    <row r="571">
       <c r="H571" s="9"/>
       <c r="I571" s="9"/>
     </row>
-    <row r="572" spans="8:9" ht="13.2">
+    <row r="572">
       <c r="H572" s="9"/>
       <c r="I572" s="9"/>
     </row>
-    <row r="573" spans="8:9" ht="13.2">
+    <row r="573">
       <c r="H573" s="9"/>
       <c r="I573" s="9"/>
     </row>
-    <row r="574" spans="8:9" ht="13.2">
+    <row r="574">
       <c r="H574" s="9"/>
       <c r="I574" s="9"/>
     </row>
-    <row r="575" spans="8:9" ht="13.2">
+    <row r="575">
       <c r="H575" s="9"/>
       <c r="I575" s="9"/>
     </row>
-    <row r="576" spans="8:9" ht="13.2">
+    <row r="576">
       <c r="H576" s="9"/>
       <c r="I576" s="9"/>
     </row>
-    <row r="577" spans="8:9" ht="13.2">
+    <row r="577">
       <c r="H577" s="9"/>
       <c r="I577" s="9"/>
     </row>
-    <row r="578" spans="8:9" ht="13.2">
+    <row r="578">
       <c r="H578" s="9"/>
       <c r="I578" s="9"/>
     </row>
-    <row r="579" spans="8:9" ht="13.2">
+    <row r="579">
       <c r="H579" s="9"/>
       <c r="I579" s="9"/>
     </row>
-    <row r="580" spans="8:9" ht="13.2">
+    <row r="580">
       <c r="H580" s="9"/>
       <c r="I580" s="9"/>
     </row>
-    <row r="581" spans="8:9" ht="13.2">
+    <row r="581">
       <c r="H581" s="9"/>
       <c r="I581" s="9"/>
     </row>
-    <row r="582" spans="8:9" ht="13.2">
+    <row r="582">
       <c r="H582" s="9"/>
       <c r="I582" s="9"/>
     </row>
-    <row r="583" spans="8:9" ht="13.2">
+    <row r="583">
       <c r="H583" s="9"/>
       <c r="I583" s="9"/>
     </row>
-    <row r="584" spans="8:9" ht="13.2">
+    <row r="584">
       <c r="H584" s="9"/>
       <c r="I584" s="9"/>
     </row>
-    <row r="585" spans="8:9" ht="13.2">
+    <row r="585">
       <c r="H585" s="9"/>
       <c r="I585" s="9"/>
     </row>
-    <row r="586" spans="8:9" ht="13.2">
+    <row r="586">
       <c r="H586" s="9"/>
       <c r="I586" s="9"/>
     </row>
-    <row r="587" spans="8:9" ht="13.2">
+    <row r="587">
       <c r="H587" s="9"/>
       <c r="I587" s="9"/>
     </row>
-    <row r="588" spans="8:9" ht="13.2">
+    <row r="588">
       <c r="H588" s="9"/>
       <c r="I588" s="9"/>
     </row>
-    <row r="589" spans="8:9" ht="13.2">
+    <row r="589">
       <c r="H589" s="9"/>
       <c r="I589" s="9"/>
     </row>
-    <row r="590" spans="8:9" ht="13.2">
+    <row r="590">
       <c r="H590" s="9"/>
       <c r="I590" s="9"/>
     </row>
-    <row r="591" spans="8:9" ht="13.2">
+    <row r="591">
       <c r="H591" s="9"/>
       <c r="I591" s="9"/>
     </row>
-    <row r="592" spans="8:9" ht="13.2">
+    <row r="592">
       <c r="H592" s="9"/>
       <c r="I592" s="9"/>
     </row>
-    <row r="593" spans="8:9" ht="13.2">
+    <row r="593">
       <c r="H593" s="9"/>
       <c r="I593" s="9"/>
     </row>
-    <row r="594" spans="8:9" ht="13.2">
+    <row r="594">
       <c r="H594" s="9"/>
       <c r="I594" s="9"/>
     </row>
-    <row r="595" spans="8:9" ht="13.2">
+    <row r="595">
       <c r="H595" s="9"/>
       <c r="I595" s="9"/>
     </row>
-    <row r="596" spans="8:9" ht="13.2">
+    <row r="596">
       <c r="H596" s="9"/>
       <c r="I596" s="9"/>
     </row>
-    <row r="597" spans="8:9" ht="13.2">
+    <row r="597">
       <c r="H597" s="9"/>
       <c r="I597" s="9"/>
     </row>
-    <row r="598" spans="8:9" ht="13.2">
+    <row r="598">
       <c r="H598" s="9"/>
       <c r="I598" s="9"/>
     </row>
-    <row r="599" spans="8:9" ht="13.2">
+    <row r="599">
       <c r="H599" s="9"/>
       <c r="I599" s="9"/>
     </row>
-    <row r="600" spans="8:9" ht="13.2">
+    <row r="600">
       <c r="H600" s="9"/>
       <c r="I600" s="9"/>
     </row>
-    <row r="601" spans="8:9" ht="13.2">
+    <row r="601">
       <c r="H601" s="9"/>
       <c r="I601" s="9"/>
     </row>
-    <row r="602" spans="8:9" ht="13.2">
+    <row r="602">
       <c r="H602" s="9"/>
       <c r="I602" s="9"/>
     </row>
-    <row r="603" spans="8:9" ht="13.2">
+    <row r="603">
       <c r="H603" s="9"/>
       <c r="I603" s="9"/>
     </row>
-    <row r="604" spans="8:9" ht="13.2">
+    <row r="604">
       <c r="H604" s="9"/>
       <c r="I604" s="9"/>
     </row>
-    <row r="605" spans="8:9" ht="13.2">
+    <row r="605">
       <c r="H605" s="9"/>
       <c r="I605" s="9"/>
     </row>
-    <row r="606" spans="8:9" ht="13.2">
+    <row r="606">
       <c r="H606" s="9"/>
       <c r="I606" s="9"/>
     </row>
-    <row r="607" spans="8:9" ht="13.2">
+    <row r="607">
       <c r="H607" s="9"/>
       <c r="I607" s="9"/>
     </row>
-    <row r="608" spans="8:9" ht="13.2">
+    <row r="608">
       <c r="H608" s="9"/>
       <c r="I608" s="9"/>
     </row>
-    <row r="609" spans="8:9" ht="13.2">
+    <row r="609">
       <c r="H609" s="9"/>
       <c r="I609" s="9"/>
     </row>
-    <row r="610" spans="8:9" ht="13.2">
+    <row r="610">
       <c r="H610" s="9"/>
       <c r="I610" s="9"/>
     </row>
-    <row r="611" spans="8:9" ht="13.2">
+    <row r="611">
       <c r="H611" s="9"/>
       <c r="I611" s="9"/>
     </row>
-    <row r="612" spans="8:9" ht="13.2">
+    <row r="612">
       <c r="H612" s="9"/>
       <c r="I612" s="9"/>
     </row>
-    <row r="613" spans="8:9" ht="13.2">
+    <row r="613">
       <c r="H613" s="9"/>
       <c r="I613" s="9"/>
     </row>
-    <row r="614" spans="8:9" ht="13.2">
+    <row r="614">
       <c r="H614" s="9"/>
       <c r="I614" s="9"/>
     </row>
-    <row r="615" spans="8:9" ht="13.2">
+    <row r="615">
       <c r="H615" s="9"/>
       <c r="I615" s="9"/>
     </row>
-    <row r="616" spans="8:9" ht="13.2">
+    <row r="616">
       <c r="H616" s="9"/>
       <c r="I616" s="9"/>
     </row>
-    <row r="617" spans="8:9" ht="13.2">
+    <row r="617">
       <c r="H617" s="9"/>
       <c r="I617" s="9"/>
     </row>
-    <row r="618" spans="8:9" ht="13.2">
+    <row r="618">
       <c r="H618" s="9"/>
       <c r="I618" s="9"/>
     </row>
-    <row r="619" spans="8:9" ht="13.2">
+    <row r="619">
       <c r="H619" s="9"/>
       <c r="I619" s="9"/>
     </row>
-    <row r="620" spans="8:9" ht="13.2">
+    <row r="620">
       <c r="H620" s="9"/>
       <c r="I620" s="9"/>
     </row>
-    <row r="621" spans="8:9" ht="13.2">
+    <row r="621">
       <c r="H621" s="9"/>
       <c r="I621" s="9"/>
     </row>
-    <row r="622" spans="8:9" ht="13.2">
+    <row r="622">
       <c r="H622" s="9"/>
       <c r="I622" s="9"/>
     </row>
-    <row r="623" spans="8:9" ht="13.2">
+    <row r="623">
       <c r="H623" s="9"/>
       <c r="I623" s="9"/>
     </row>
-    <row r="624" spans="8:9" ht="13.2">
+    <row r="624">
       <c r="H624" s="9"/>
       <c r="I624" s="9"/>
     </row>
-    <row r="625" spans="8:9" ht="13.2">
+    <row r="625">
       <c r="H625" s="9"/>
       <c r="I625" s="9"/>
     </row>
-    <row r="626" spans="8:9" ht="13.2">
+    <row r="626">
       <c r="H626" s="9"/>
       <c r="I626" s="9"/>
     </row>
-    <row r="627" spans="8:9" ht="13.2">
+    <row r="627">
       <c r="H627" s="9"/>
       <c r="I627" s="9"/>
     </row>
-    <row r="628" spans="8:9" ht="13.2">
+    <row r="628">
       <c r="H628" s="9"/>
       <c r="I628" s="9"/>
     </row>
-    <row r="629" spans="8:9" ht="13.2">
+    <row r="629">
       <c r="H629" s="9"/>
       <c r="I629" s="9"/>
     </row>
-    <row r="630" spans="8:9" ht="13.2">
+    <row r="630">
       <c r="H630" s="9"/>
       <c r="I630" s="9"/>
     </row>
-    <row r="631" spans="8:9" ht="13.2">
+    <row r="631">
       <c r="H631" s="9"/>
       <c r="I631" s="9"/>
     </row>
-    <row r="632" spans="8:9" ht="13.2">
+    <row r="632">
       <c r="H632" s="9"/>
       <c r="I632" s="9"/>
     </row>
-    <row r="633" spans="8:9" ht="13.2">
+    <row r="633">
       <c r="H633" s="9"/>
       <c r="I633" s="9"/>
     </row>
-    <row r="634" spans="8:9" ht="13.2">
+    <row r="634">
       <c r="H634" s="9"/>
       <c r="I634" s="9"/>
     </row>
-    <row r="635" spans="8:9" ht="13.2">
+    <row r="635">
       <c r="H635" s="9"/>
       <c r="I635" s="9"/>
     </row>
-    <row r="636" spans="8:9" ht="13.2">
+    <row r="636">
       <c r="H636" s="9"/>
       <c r="I636" s="9"/>
     </row>
-    <row r="637" spans="8:9" ht="13.2">
+    <row r="637">
       <c r="H637" s="9"/>
       <c r="I637" s="9"/>
     </row>
-    <row r="638" spans="8:9" ht="13.2">
+    <row r="638">
       <c r="H638" s="9"/>
       <c r="I638" s="9"/>
     </row>
-    <row r="639" spans="8:9" ht="13.2">
+    <row r="639">
       <c r="H639" s="9"/>
       <c r="I639" s="9"/>
     </row>
-    <row r="640" spans="8:9" ht="13.2">
+    <row r="640">
       <c r="H640" s="9"/>
       <c r="I640" s="9"/>
     </row>
-    <row r="641" spans="8:9" ht="13.2">
+    <row r="641">
       <c r="H641" s="9"/>
       <c r="I641" s="9"/>
     </row>
-    <row r="642" spans="8:9" ht="13.2">
+    <row r="642">
       <c r="H642" s="9"/>
       <c r="I642" s="9"/>
     </row>
-    <row r="643" spans="8:9" ht="13.2">
+    <row r="643">
       <c r="H643" s="9"/>
       <c r="I643" s="9"/>
     </row>
-    <row r="644" spans="8:9" ht="13.2">
+    <row r="644">
       <c r="H644" s="9"/>
       <c r="I644" s="9"/>
     </row>
-    <row r="645" spans="8:9" ht="13.2">
+    <row r="645">
       <c r="H645" s="9"/>
       <c r="I645" s="9"/>
     </row>
-    <row r="646" spans="8:9" ht="13.2">
+    <row r="646">
       <c r="H646" s="9"/>
       <c r="I646" s="9"/>
     </row>
-    <row r="647" spans="8:9" ht="13.2">
+    <row r="647">
       <c r="H647" s="9"/>
       <c r="I647" s="9"/>
     </row>
-    <row r="648" spans="8:9" ht="13.2">
+    <row r="648">
       <c r="H648" s="9"/>
       <c r="I648" s="9"/>
     </row>
-    <row r="649" spans="8:9" ht="13.2">
+    <row r="649">
       <c r="H649" s="9"/>
       <c r="I649" s="9"/>
     </row>
-    <row r="650" spans="8:9" ht="13.2">
+    <row r="650">
       <c r="H650" s="9"/>
       <c r="I650" s="9"/>
     </row>
-    <row r="651" spans="8:9" ht="13.2">
+    <row r="651">
       <c r="H651" s="9"/>
       <c r="I651" s="9"/>
     </row>
-    <row r="652" spans="8:9" ht="13.2">
+    <row r="652">
       <c r="H652" s="9"/>
       <c r="I652" s="9"/>
     </row>
-    <row r="653" spans="8:9" ht="13.2">
+    <row r="653">
       <c r="H653" s="9"/>
       <c r="I653" s="9"/>
     </row>
-    <row r="654" spans="8:9" ht="13.2">
+    <row r="654">
       <c r="H654" s="9"/>
       <c r="I654" s="9"/>
     </row>
-    <row r="655" spans="8:9" ht="13.2">
+    <row r="655">
       <c r="H655" s="9"/>
       <c r="I655" s="9"/>
     </row>
-    <row r="656" spans="8:9" ht="13.2">
+    <row r="656">
       <c r="H656" s="9"/>
       <c r="I656" s="9"/>
     </row>
-    <row r="657" spans="8:9" ht="13.2">
+    <row r="657">
       <c r="H657" s="9"/>
       <c r="I657" s="9"/>
     </row>
-    <row r="658" spans="8:9" ht="13.2">
+    <row r="658">
       <c r="H658" s="9"/>
       <c r="I658" s="9"/>
     </row>
-    <row r="659" spans="8:9" ht="13.2">
+    <row r="659">
       <c r="H659" s="9"/>
       <c r="I659" s="9"/>
     </row>
-    <row r="660" spans="8:9" ht="13.2">
+    <row r="660">
       <c r="H660" s="9"/>
       <c r="I660" s="9"/>
     </row>
-    <row r="661" spans="8:9" ht="13.2">
+    <row r="661">
       <c r="H661" s="9"/>
       <c r="I661" s="9"/>
     </row>
-    <row r="662" spans="8:9" ht="13.2">
+    <row r="662">
       <c r="H662" s="9"/>
       <c r="I662" s="9"/>
     </row>
-    <row r="663" spans="8:9" ht="13.2">
+    <row r="663">
       <c r="H663" s="9"/>
       <c r="I663" s="9"/>
     </row>
-    <row r="664" spans="8:9" ht="13.2">
+    <row r="664">
       <c r="H664" s="9"/>
       <c r="I664" s="9"/>
     </row>
-    <row r="665" spans="8:9" ht="13.2">
+    <row r="665">
       <c r="H665" s="9"/>
       <c r="I665" s="9"/>
     </row>
-    <row r="666" spans="8:9" ht="13.2">
+    <row r="666">
       <c r="H666" s="9"/>
       <c r="I666" s="9"/>
     </row>
-    <row r="667" spans="8:9" ht="13.2">
+    <row r="667">
       <c r="H667" s="9"/>
       <c r="I667" s="9"/>
     </row>
-    <row r="668" spans="8:9" ht="13.2">
+    <row r="668">
       <c r="H668" s="9"/>
       <c r="I668" s="9"/>
     </row>
-    <row r="669" spans="8:9" ht="13.2">
+    <row r="669">
       <c r="H669" s="9"/>
       <c r="I669" s="9"/>
     </row>
-    <row r="670" spans="8:9" ht="13.2">
+    <row r="670">
       <c r="H670" s="9"/>
       <c r="I670" s="9"/>
     </row>
-    <row r="671" spans="8:9" ht="13.2">
+    <row r="671">
       <c r="H671" s="9"/>
       <c r="I671" s="9"/>
     </row>
-    <row r="672" spans="8:9" ht="13.2">
+    <row r="672">
       <c r="H672" s="9"/>
       <c r="I672" s="9"/>
     </row>
-    <row r="673" spans="8:9" ht="13.2">
+    <row r="673">
       <c r="H673" s="9"/>
       <c r="I673" s="9"/>
     </row>
-    <row r="674" spans="8:9" ht="13.2">
+    <row r="674">
       <c r="H674" s="9"/>
       <c r="I674" s="9"/>
     </row>
-    <row r="675" spans="8:9" ht="13.2">
+    <row r="675">
       <c r="H675" s="9"/>
       <c r="I675" s="9"/>
     </row>
-    <row r="676" spans="8:9" ht="13.2">
+    <row r="676">
       <c r="H676" s="9"/>
       <c r="I676" s="9"/>
     </row>
-    <row r="677" spans="8:9" ht="13.2">
+    <row r="677">
       <c r="H677" s="9"/>
       <c r="I677" s="9"/>
     </row>
-    <row r="678" spans="8:9" ht="13.2">
+    <row r="678">
       <c r="H678" s="9"/>
       <c r="I678" s="9"/>
     </row>
-    <row r="679" spans="8:9" ht="13.2">
+    <row r="679">
       <c r="H679" s="9"/>
       <c r="I679" s="9"/>
     </row>
-    <row r="680" spans="8:9" ht="13.2">
+    <row r="680">
       <c r="H680" s="9"/>
       <c r="I680" s="9"/>
     </row>
-    <row r="681" spans="8:9" ht="13.2">
+    <row r="681">
       <c r="H681" s="9"/>
       <c r="I681" s="9"/>
     </row>
-    <row r="682" spans="8:9" ht="13.2">
+    <row r="682">
       <c r="H682" s="9"/>
       <c r="I682" s="9"/>
     </row>
-    <row r="683" spans="8:9" ht="13.2">
+    <row r="683">
       <c r="H683" s="9"/>
       <c r="I683" s="9"/>
     </row>
-    <row r="684" spans="8:9" ht="13.2">
+    <row r="684">
       <c r="H684" s="9"/>
       <c r="I684" s="9"/>
     </row>
-    <row r="685" spans="8:9" ht="13.2">
+    <row r="685">
       <c r="H685" s="9"/>
       <c r="I685" s="9"/>
     </row>
-    <row r="686" spans="8:9" ht="13.2">
+    <row r="686">
       <c r="H686" s="9"/>
       <c r="I686" s="9"/>
     </row>
-    <row r="687" spans="8:9" ht="13.2">
+    <row r="687">
       <c r="H687" s="9"/>
       <c r="I687" s="9"/>
     </row>
-    <row r="688" spans="8:9" ht="13.2">
+    <row r="688">
       <c r="H688" s="9"/>
       <c r="I688" s="9"/>
     </row>
-    <row r="689" spans="8:9" ht="13.2">
+    <row r="689">
       <c r="H689" s="9"/>
       <c r="I689" s="9"/>
     </row>
-    <row r="690" spans="8:9" ht="13.2">
+    <row r="690">
       <c r="H690" s="9"/>
       <c r="I690" s="9"/>
     </row>
-    <row r="691" spans="8:9" ht="13.2">
+    <row r="691">
       <c r="H691" s="9"/>
       <c r="I691" s="9"/>
     </row>
-    <row r="692" spans="8:9" ht="13.2">
+    <row r="692">
       <c r="H692" s="9"/>
       <c r="I692" s="9"/>
     </row>
-    <row r="693" spans="8:9" ht="13.2">
+    <row r="693">
       <c r="H693" s="9"/>
       <c r="I693" s="9"/>
     </row>
-    <row r="694" spans="8:9" ht="13.2">
+    <row r="694">
       <c r="H694" s="9"/>
       <c r="I694" s="9"/>
     </row>
-    <row r="695" spans="8:9" ht="13.2">
+    <row r="695">
       <c r="H695" s="9"/>
       <c r="I695" s="9"/>
     </row>
-    <row r="696" spans="8:9" ht="13.2">
+    <row r="696">
       <c r="H696" s="9"/>
       <c r="I696" s="9"/>
     </row>
-    <row r="697" spans="8:9" ht="13.2">
+    <row r="697">
       <c r="H697" s="9"/>
       <c r="I697" s="9"/>
     </row>
-    <row r="698" spans="8:9" ht="13.2">
+    <row r="698">
       <c r="H698" s="9"/>
       <c r="I698" s="9"/>
     </row>
-    <row r="699" spans="8:9" ht="13.2">
+    <row r="699">
       <c r="H699" s="9"/>
       <c r="I699" s="9"/>
     </row>
-    <row r="700" spans="8:9" ht="13.2">
+    <row r="700">
       <c r="H700" s="9"/>
       <c r="I700" s="9"/>
     </row>
-    <row r="701" spans="8:9" ht="13.2">
+    <row r="701">
       <c r="H701" s="9"/>
       <c r="I701" s="9"/>
     </row>
-    <row r="702" spans="8:9" ht="13.2">
+    <row r="702">
       <c r="H702" s="9"/>
       <c r="I702" s="9"/>
     </row>
-    <row r="703" spans="8:9" ht="13.2">
+    <row r="703">
       <c r="H703" s="9"/>
       <c r="I703" s="9"/>
     </row>
-    <row r="704" spans="8:9" ht="13.2">
+    <row r="704">
       <c r="H704" s="9"/>
       <c r="I704" s="9"/>
     </row>
-    <row r="705" spans="8:9" ht="13.2">
+    <row r="705">
       <c r="H705" s="9"/>
       <c r="I705" s="9"/>
     </row>
-    <row r="706" spans="8:9" ht="13.2">
+    <row r="706">
       <c r="H706" s="9"/>
       <c r="I706" s="9"/>
     </row>
-    <row r="707" spans="8:9" ht="13.2">
+    <row r="707">
       <c r="H707" s="9"/>
       <c r="I707" s="9"/>
     </row>
-    <row r="708" spans="8:9" ht="13.2">
+    <row r="708">
       <c r="H708" s="9"/>
       <c r="I708" s="9"/>
     </row>
-    <row r="709" spans="8:9" ht="13.2">
+    <row r="709">
       <c r="H709" s="9"/>
       <c r="I709" s="9"/>
     </row>
-    <row r="710" spans="8:9" ht="13.2">
+    <row r="710">
       <c r="H710" s="9"/>
       <c r="I710" s="9"/>
     </row>
-    <row r="711" spans="8:9" ht="13.2">
+    <row r="711">
       <c r="H711" s="9"/>
       <c r="I711" s="9"/>
     </row>
-    <row r="712" spans="8:9" ht="13.2">
+    <row r="712">
       <c r="H712" s="9"/>
       <c r="I712" s="9"/>
     </row>
-    <row r="713" spans="8:9" ht="13.2">
+    <row r="713">
       <c r="H713" s="9"/>
       <c r="I713" s="9"/>
     </row>
-    <row r="714" spans="8:9" ht="13.2">
+    <row r="714">
       <c r="H714" s="9"/>
       <c r="I714" s="9"/>
     </row>
-    <row r="715" spans="8:9" ht="13.2">
+    <row r="715">
       <c r="H715" s="9"/>
       <c r="I715" s="9"/>
     </row>
-    <row r="716" spans="8:9" ht="13.2">
+    <row r="716">
       <c r="H716" s="9"/>
       <c r="I716" s="9"/>
     </row>
-    <row r="717" spans="8:9" ht="13.2">
+    <row r="717">
       <c r="H717" s="9"/>
       <c r="I717" s="9"/>
     </row>
-    <row r="718" spans="8:9" ht="13.2">
+    <row r="718">
       <c r="H718" s="9"/>
       <c r="I718" s="9"/>
     </row>
-    <row r="719" spans="8:9" ht="13.2">
+    <row r="719">
       <c r="H719" s="9"/>
       <c r="I719" s="9"/>
     </row>
-    <row r="720" spans="8:9" ht="13.2">
+    <row r="720">
       <c r="H720" s="9"/>
       <c r="I720" s="9"/>
     </row>
-    <row r="721" spans="8:9" ht="13.2">
+    <row r="721">
       <c r="H721" s="9"/>
       <c r="I721" s="9"/>
     </row>
-    <row r="722" spans="8:9" ht="13.2">
+    <row r="722">
       <c r="H722" s="9"/>
       <c r="I722" s="9"/>
     </row>
-    <row r="723" spans="8:9" ht="13.2">
+    <row r="723">
       <c r="H723" s="9"/>
       <c r="I723" s="9"/>
     </row>
-    <row r="724" spans="8:9" ht="13.2">
+    <row r="724">
       <c r="H724" s="9"/>
       <c r="I724" s="9"/>
     </row>
-    <row r="725" spans="8:9" ht="13.2">
+    <row r="725">
       <c r="H725" s="9"/>
       <c r="I725" s="9"/>
     </row>
-    <row r="726" spans="8:9" ht="13.2">
+    <row r="726">
       <c r="H726" s="9"/>
       <c r="I726" s="9"/>
     </row>
-    <row r="727" spans="8:9" ht="13.2">
+    <row r="727">
       <c r="H727" s="9"/>
       <c r="I727" s="9"/>
     </row>
-    <row r="728" spans="8:9" ht="13.2">
+    <row r="728">
       <c r="H728" s="9"/>
       <c r="I728" s="9"/>
     </row>
-    <row r="729" spans="8:9" ht="13.2">
+    <row r="729">
       <c r="H729" s="9"/>
       <c r="I729" s="9"/>
     </row>
-    <row r="730" spans="8:9" ht="13.2">
+    <row r="730">
       <c r="H730" s="9"/>
       <c r="I730" s="9"/>
     </row>
-    <row r="731" spans="8:9" ht="13.2">
+    <row r="731">
       <c r="H731" s="9"/>
       <c r="I731" s="9"/>
     </row>
-    <row r="732" spans="8:9" ht="13.2">
+    <row r="732">
       <c r="H732" s="9"/>
       <c r="I732" s="9"/>
     </row>
-    <row r="733" spans="8:9" ht="13.2">
+    <row r="733">
       <c r="H733" s="9"/>
       <c r="I733" s="9"/>
     </row>
-    <row r="734" spans="8:9" ht="13.2">
+    <row r="734">
       <c r="H734" s="9"/>
       <c r="I734" s="9"/>
     </row>
-    <row r="735" spans="8:9" ht="13.2">
+    <row r="735">
       <c r="H735" s="9"/>
       <c r="I735" s="9"/>
     </row>
-    <row r="736" spans="8:9" ht="13.2">
+    <row r="736">
       <c r="H736" s="9"/>
       <c r="I736" s="9"/>
     </row>
-    <row r="737" spans="8:9" ht="13.2">
+    <row r="737">
       <c r="H737" s="9"/>
       <c r="I737" s="9"/>
     </row>
-    <row r="738" spans="8:9" ht="13.2">
+    <row r="738">
       <c r="H738" s="9"/>
       <c r="I738" s="9"/>
     </row>
-    <row r="739" spans="8:9" ht="13.2">
+    <row r="739">
       <c r="H739" s="9"/>
       <c r="I739" s="9"/>
     </row>
-    <row r="740" spans="8:9" ht="13.2">
+    <row r="740">
       <c r="H740" s="9"/>
       <c r="I740" s="9"/>
     </row>
-    <row r="741" spans="8:9" ht="13.2">
+    <row r="741">
       <c r="H741" s="9"/>
       <c r="I741" s="9"/>
     </row>
-    <row r="742" spans="8:9" ht="13.2">
+    <row r="742">
       <c r="H742" s="9"/>
       <c r="I742" s="9"/>
     </row>
-    <row r="743" spans="8:9" ht="13.2">
+    <row r="743">
       <c r="H743" s="9"/>
       <c r="I743" s="9"/>
     </row>
-    <row r="744" spans="8:9" ht="13.2">
+    <row r="744">
       <c r="H744" s="9"/>
       <c r="I744" s="9"/>
     </row>
-    <row r="745" spans="8:9" ht="13.2">
+    <row r="745">
       <c r="H745" s="9"/>
       <c r="I745" s="9"/>
     </row>
-    <row r="746" spans="8:9" ht="13.2">
+    <row r="746">
       <c r="H746" s="9"/>
       <c r="I746" s="9"/>
     </row>
-    <row r="747" spans="8:9" ht="13.2">
+    <row r="747">
       <c r="H747" s="9"/>
       <c r="I747" s="9"/>
     </row>
-    <row r="748" spans="8:9" ht="13.2">
+    <row r="748">
       <c r="H748" s="9"/>
       <c r="I748" s="9"/>
     </row>
-    <row r="749" spans="8:9" ht="13.2">
+    <row r="749">
       <c r="H749" s="9"/>
       <c r="I749" s="9"/>
     </row>
-    <row r="750" spans="8:9" ht="13.2">
+    <row r="750">
       <c r="H750" s="9"/>
       <c r="I750" s="9"/>
     </row>
-    <row r="751" spans="8:9" ht="13.2">
+    <row r="751">
       <c r="H751" s="9"/>
       <c r="I751" s="9"/>
     </row>
-    <row r="752" spans="8:9" ht="13.2">
+    <row r="752">
       <c r="H752" s="9"/>
       <c r="I752" s="9"/>
     </row>
-    <row r="753" spans="8:9" ht="13.2">
+    <row r="753">
       <c r="H753" s="9"/>
       <c r="I753" s="9"/>
     </row>
-    <row r="754" spans="8:9" ht="13.2">
+    <row r="754">
       <c r="H754" s="9"/>
       <c r="I754" s="9"/>
     </row>
-    <row r="755" spans="8:9" ht="13.2">
+    <row r="755">
       <c r="H755" s="9"/>
       <c r="I755" s="9"/>
     </row>
-    <row r="756" spans="8:9" ht="13.2">
+    <row r="756">
       <c r="H756" s="9"/>
       <c r="I756" s="9"/>
     </row>
-    <row r="757" spans="8:9" ht="13.2">
+    <row r="757">
       <c r="H757" s="9"/>
       <c r="I757" s="9"/>
     </row>
-    <row r="758" spans="8:9" ht="13.2">
+    <row r="758">
       <c r="H758" s="9"/>
       <c r="I758" s="9"/>
     </row>
-    <row r="759" spans="8:9" ht="13.2">
+    <row r="759">
       <c r="H759" s="9"/>
       <c r="I759" s="9"/>
     </row>
-    <row r="760" spans="8:9" ht="13.2">
+    <row r="760">
       <c r="H760" s="9"/>
       <c r="I760" s="9"/>
     </row>
-    <row r="761" spans="8:9" ht="13.2">
+    <row r="761">
       <c r="H761" s="9"/>
       <c r="I761" s="9"/>
     </row>
-    <row r="762" spans="8:9" ht="13.2">
+    <row r="762">
       <c r="H762" s="9"/>
       <c r="I762" s="9"/>
     </row>
-    <row r="763" spans="8:9" ht="13.2">
+    <row r="763">
       <c r="H763" s="9"/>
       <c r="I763" s="9"/>
     </row>
-    <row r="764" spans="8:9" ht="13.2">
+    <row r="764">
       <c r="H764" s="9"/>
       <c r="I764" s="9"/>
     </row>
-    <row r="765" spans="8:9" ht="13.2">
+    <row r="765">
       <c r="H765" s="9"/>
       <c r="I765" s="9"/>
     </row>
-    <row r="766" spans="8:9" ht="13.2">
+    <row r="766">
       <c r="H766" s="9"/>
       <c r="I766" s="9"/>
     </row>
-    <row r="767" spans="8:9" ht="13.2">
+    <row r="767">
       <c r="H767" s="9"/>
       <c r="I767" s="9"/>
     </row>
-    <row r="768" spans="8:9" ht="13.2">
+    <row r="768">
       <c r="H768" s="9"/>
       <c r="I768" s="9"/>
     </row>
-    <row r="769" spans="8:9" ht="13.2">
+    <row r="769">
       <c r="H769" s="9"/>
       <c r="I769" s="9"/>
     </row>
-    <row r="770" spans="8:9" ht="13.2">
+    <row r="770">
       <c r="H770" s="9"/>
       <c r="I770" s="9"/>
     </row>
-    <row r="771" spans="8:9" ht="13.2">
+    <row r="771">
       <c r="H771" s="9"/>
       <c r="I771" s="9"/>
     </row>
-    <row r="772" spans="8:9" ht="13.2">
+    <row r="772">
       <c r="H772" s="9"/>
       <c r="I772" s="9"/>
     </row>
-    <row r="773" spans="8:9" ht="13.2">
+    <row r="773">
       <c r="H773" s="9"/>
       <c r="I773" s="9"/>
     </row>
-    <row r="774" spans="8:9" ht="13.2">
+    <row r="774">
       <c r="H774" s="9"/>
       <c r="I774" s="9"/>
     </row>
-    <row r="775" spans="8:9" ht="13.2">
+    <row r="775">
       <c r="H775" s="9"/>
       <c r="I775" s="9"/>
     </row>
-    <row r="776" spans="8:9" ht="13.2">
+    <row r="776">
       <c r="H776" s="9"/>
       <c r="I776" s="9"/>
     </row>
-    <row r="777" spans="8:9" ht="13.2">
+    <row r="777">
       <c r="H777" s="9"/>
       <c r="I777" s="9"/>
     </row>
-    <row r="778" spans="8:9" ht="13.2">
+    <row r="778">
       <c r="H778" s="9"/>
       <c r="I778" s="9"/>
     </row>
-    <row r="779" spans="8:9" ht="13.2">
+    <row r="779">
       <c r="H779" s="9"/>
       <c r="I779" s="9"/>
     </row>
-    <row r="780" spans="8:9" ht="13.2">
+    <row r="780">
       <c r="H780" s="9"/>
       <c r="I780" s="9"/>
     </row>
-    <row r="781" spans="8:9" ht="13.2">
+    <row r="781">
       <c r="H781" s="9"/>
       <c r="I781" s="9"/>
     </row>
-    <row r="782" spans="8:9" ht="13.2">
+    <row r="782">
       <c r="H782" s="9"/>
       <c r="I782" s="9"/>
     </row>
-    <row r="783" spans="8:9" ht="13.2">
+    <row r="783">
       <c r="H783" s="9"/>
       <c r="I783" s="9"/>
     </row>
-    <row r="784" spans="8:9" ht="13.2">
+    <row r="784">
       <c r="H784" s="9"/>
       <c r="I784" s="9"/>
     </row>
-    <row r="785" spans="8:9" ht="13.2">
+    <row r="785">
       <c r="H785" s="9"/>
       <c r="I785" s="9"/>
     </row>
-    <row r="786" spans="8:9" ht="13.2">
+    <row r="786">
       <c r="H786" s="9"/>
       <c r="I786" s="9"/>
     </row>
-    <row r="787" spans="8:9" ht="13.2">
+    <row r="787">
       <c r="H787" s="9"/>
       <c r="I787" s="9"/>
     </row>
-    <row r="788" spans="8:9" ht="13.2">
+    <row r="788">
       <c r="H788" s="9"/>
       <c r="I788" s="9"/>
     </row>
-    <row r="789" spans="8:9" ht="13.2">
+    <row r="789">
       <c r="H789" s="9"/>
       <c r="I789" s="9"/>
     </row>
-    <row r="790" spans="8:9" ht="13.2">
+    <row r="790">
       <c r="H790" s="9"/>
       <c r="I790" s="9"/>
     </row>
-    <row r="791" spans="8:9" ht="13.2">
+    <row r="791">
       <c r="H791" s="9"/>
       <c r="I791" s="9"/>
     </row>
-    <row r="792" spans="8:9" ht="13.2">
+    <row r="792">
       <c r="H792" s="9"/>
       <c r="I792" s="9"/>
     </row>
-    <row r="793" spans="8:9" ht="13.2">
+    <row r="793">
       <c r="H793" s="9"/>
       <c r="I793" s="9"/>
     </row>
-    <row r="794" spans="8:9" ht="13.2">
+    <row r="794">
       <c r="H794" s="9"/>
       <c r="I794" s="9"/>
     </row>
-    <row r="795" spans="8:9" ht="13.2">
+    <row r="795">
       <c r="H795" s="9"/>
       <c r="I795" s="9"/>
     </row>
-    <row r="796" spans="8:9" ht="13.2">
+    <row r="796">
       <c r="H796" s="9"/>
       <c r="I796" s="9"/>
     </row>
-    <row r="797" spans="8:9" ht="13.2">
+    <row r="797">
       <c r="H797" s="9"/>
       <c r="I797" s="9"/>
     </row>
-    <row r="798" spans="8:9" ht="13.2">
+    <row r="798">
       <c r="H798" s="9"/>
       <c r="I798" s="9"/>
     </row>
-    <row r="799" spans="8:9" ht="13.2">
+    <row r="799">
       <c r="H799" s="9"/>
       <c r="I799" s="9"/>
     </row>
-    <row r="800" spans="8:9" ht="13.2">
+    <row r="800">
       <c r="H800" s="9"/>
       <c r="I800" s="9"/>
     </row>
-    <row r="801" spans="8:9" ht="13.2">
+    <row r="801">
       <c r="H801" s="9"/>
       <c r="I801" s="9"/>
     </row>
-    <row r="802" spans="8:9" ht="13.2">
+    <row r="802">
       <c r="H802" s="9"/>
       <c r="I802" s="9"/>
     </row>
-    <row r="803" spans="8:9" ht="13.2">
+    <row r="803">
       <c r="H803" s="9"/>
       <c r="I803" s="9"/>
     </row>
-    <row r="804" spans="8:9" ht="13.2">
+    <row r="804">
       <c r="H804" s="9"/>
       <c r="I804" s="9"/>
     </row>
-    <row r="805" spans="8:9" ht="13.2">
+    <row r="805">
       <c r="H805" s="9"/>
       <c r="I805" s="9"/>
     </row>
-    <row r="806" spans="8:9" ht="13.2">
+    <row r="806">
       <c r="H806" s="9"/>
       <c r="I806" s="9"/>
     </row>
-    <row r="807" spans="8:9" ht="13.2">
+    <row r="807">
       <c r="H807" s="9"/>
       <c r="I807" s="9"/>
     </row>
-    <row r="808" spans="8:9" ht="13.2">
+    <row r="808">
       <c r="H808" s="9"/>
       <c r="I808" s="9"/>
     </row>
-    <row r="809" spans="8:9" ht="13.2">
+    <row r="809">
       <c r="H809" s="9"/>
       <c r="I809" s="9"/>
     </row>
-    <row r="810" spans="8:9" ht="13.2">
+    <row r="810">
       <c r="H810" s="9"/>
       <c r="I810" s="9"/>
     </row>
-    <row r="811" spans="8:9" ht="13.2">
+    <row r="811">
       <c r="H811" s="9"/>
       <c r="I811" s="9"/>
     </row>
-    <row r="812" spans="8:9" ht="13.2">
+    <row r="812">
       <c r="H812" s="9"/>
       <c r="I812" s="9"/>
     </row>
-    <row r="813" spans="8:9" ht="13.2">
+    <row r="813">
       <c r="H813" s="9"/>
       <c r="I813" s="9"/>
     </row>
-    <row r="814" spans="8:9" ht="13.2">
+    <row r="814">
       <c r="H814" s="9"/>
       <c r="I814" s="9"/>
     </row>
-    <row r="815" spans="8:9" ht="13.2">
+    <row r="815">
       <c r="H815" s="9"/>
       <c r="I815" s="9"/>
     </row>
-    <row r="816" spans="8:9" ht="13.2">
+    <row r="816">
       <c r="H816" s="9"/>
       <c r="I816" s="9"/>
     </row>
-    <row r="817" spans="8:9" ht="13.2">
+    <row r="817">
       <c r="H817" s="9"/>
       <c r="I817" s="9"/>
     </row>
-    <row r="818" spans="8:9" ht="13.2">
+    <row r="818">
       <c r="H818" s="9"/>
       <c r="I818" s="9"/>
     </row>
-    <row r="819" spans="8:9" ht="13.2">
+    <row r="819">
       <c r="H819" s="9"/>
       <c r="I819" s="9"/>
     </row>
-    <row r="820" spans="8:9" ht="13.2">
+    <row r="820">
       <c r="H820" s="9"/>
       <c r="I820" s="9"/>
     </row>
-    <row r="821" spans="8:9" ht="13.2">
+    <row r="821">
       <c r="H821" s="9"/>
       <c r="I821" s="9"/>
     </row>
-    <row r="822" spans="8:9" ht="13.2">
+    <row r="822">
       <c r="H822" s="9"/>
       <c r="I822" s="9"/>
     </row>
-    <row r="823" spans="8:9" ht="13.2">
+    <row r="823">
       <c r="H823" s="9"/>
       <c r="I823" s="9"/>
     </row>
-    <row r="824" spans="8:9" ht="13.2">
+    <row r="824">
       <c r="H824" s="9"/>
       <c r="I824" s="9"/>
     </row>
-    <row r="825" spans="8:9" ht="13.2">
+    <row r="825">
       <c r="H825" s="9"/>
       <c r="I825" s="9"/>
     </row>
-    <row r="826" spans="8:9" ht="13.2">
+    <row r="826">
       <c r="H826" s="9"/>
       <c r="I826" s="9"/>
     </row>
-    <row r="827" spans="8:9" ht="13.2">
+    <row r="827">
       <c r="H827" s="9"/>
       <c r="I827" s="9"/>
     </row>
-    <row r="828" spans="8:9" ht="13.2">
+    <row r="828">
       <c r="H828" s="9"/>
       <c r="I828" s="9"/>
     </row>
-    <row r="829" spans="8:9" ht="13.2">
+    <row r="829">
       <c r="H829" s="9"/>
       <c r="I829" s="9"/>
     </row>
-    <row r="830" spans="8:9" ht="13.2">
+    <row r="830">
       <c r="H830" s="9"/>
       <c r="I830" s="9"/>
     </row>
-    <row r="831" spans="8:9" ht="13.2">
+    <row r="831">
       <c r="H831" s="9"/>
       <c r="I831" s="9"/>
     </row>
-    <row r="832" spans="8:9" ht="13.2">
+    <row r="832">
       <c r="H832" s="9"/>
       <c r="I832" s="9"/>
     </row>
-    <row r="833" spans="8:9" ht="13.2">
+    <row r="833">
       <c r="H833" s="9"/>
       <c r="I833" s="9"/>
     </row>
-    <row r="834" spans="8:9" ht="13.2">
+    <row r="834">
       <c r="H834" s="9"/>
       <c r="I834" s="9"/>
     </row>
-    <row r="835" spans="8:9" ht="13.2">
+    <row r="835">
       <c r="H835" s="9"/>
       <c r="I835" s="9"/>
     </row>
-    <row r="836" spans="8:9" ht="13.2">
+    <row r="836">
       <c r="H836" s="9"/>
       <c r="I836" s="9"/>
     </row>
-    <row r="837" spans="8:9" ht="13.2">
+    <row r="837">
       <c r="H837" s="9"/>
       <c r="I837" s="9"/>
     </row>
-    <row r="838" spans="8:9" ht="13.2">
+    <row r="838">
       <c r="H838" s="9"/>
       <c r="I838" s="9"/>
     </row>
-    <row r="839" spans="8:9" ht="13.2">
+    <row r="839">
       <c r="H839" s="9"/>
       <c r="I839" s="9"/>
     </row>
-    <row r="840" spans="8:9" ht="13.2">
+    <row r="840">
       <c r="H840" s="9"/>
       <c r="I840" s="9"/>
     </row>
-    <row r="841" spans="8:9" ht="13.2">
+    <row r="841">
       <c r="H841" s="9"/>
       <c r="I841" s="9"/>
     </row>
-    <row r="842" spans="8:9" ht="13.2">
+    <row r="842">
       <c r="H842" s="9"/>
       <c r="I842" s="9"/>
     </row>
-    <row r="843" spans="8:9" ht="13.2">
+    <row r="843">
       <c r="H843" s="9"/>
       <c r="I843" s="9"/>
     </row>
-    <row r="844" spans="8:9" ht="13.2">
+    <row r="844">
       <c r="H844" s="9"/>
       <c r="I844" s="9"/>
     </row>
-    <row r="845" spans="8:9" ht="13.2">
+    <row r="845">
       <c r="H845" s="9"/>
       <c r="I845" s="9"/>
     </row>
-    <row r="846" spans="8:9" ht="13.2">
+    <row r="846">
       <c r="H846" s="9"/>
       <c r="I846" s="9"/>
     </row>
-    <row r="847" spans="8:9" ht="13.2">
+    <row r="847">
       <c r="H847" s="9"/>
       <c r="I847" s="9"/>
     </row>
-    <row r="848" spans="8:9" ht="13.2">
+    <row r="848">
       <c r="H848" s="9"/>
       <c r="I848" s="9"/>
     </row>
-    <row r="849" spans="8:9" ht="13.2">
+    <row r="849">
       <c r="H849" s="9"/>
       <c r="I849" s="9"/>
     </row>
-    <row r="850" spans="8:9" ht="13.2">
+    <row r="850">
       <c r="H850" s="9"/>
       <c r="I850" s="9"/>
     </row>
-    <row r="851" spans="8:9" ht="13.2">
+    <row r="851">
       <c r="H851" s="9"/>
       <c r="I851" s="9"/>
     </row>
-    <row r="852" spans="8:9" ht="13.2">
+    <row r="852">
       <c r="H852" s="9"/>
       <c r="I852" s="9"/>
     </row>
-    <row r="853" spans="8:9" ht="13.2">
+    <row r="853">
       <c r="H853" s="9"/>
       <c r="I853" s="9"/>
     </row>
-    <row r="854" spans="8:9" ht="13.2">
+    <row r="854">
       <c r="H854" s="9"/>
       <c r="I854" s="9"/>
     </row>
-    <row r="855" spans="8:9" ht="13.2">
+    <row r="855">
       <c r="H855" s="9"/>
       <c r="I855" s="9"/>
     </row>
-    <row r="856" spans="8:9" ht="13.2">
+    <row r="856">
       <c r="H856" s="9"/>
       <c r="I856" s="9"/>
     </row>
-    <row r="857" spans="8:9" ht="13.2">
+    <row r="857">
       <c r="H857" s="9"/>
       <c r="I857" s="9"/>
     </row>
-    <row r="858" spans="8:9" ht="13.2">
+    <row r="858">
       <c r="H858" s="9"/>
       <c r="I858" s="9"/>
     </row>
-    <row r="859" spans="8:9" ht="13.2">
+    <row r="859">
       <c r="H859" s="9"/>
       <c r="I859" s="9"/>
     </row>
-    <row r="860" spans="8:9" ht="13.2">
+    <row r="860">
       <c r="H860" s="9"/>
       <c r="I860" s="9"/>
     </row>
-    <row r="861" spans="8:9" ht="13.2">
+    <row r="861">
       <c r="H861" s="9"/>
       <c r="I861" s="9"/>
     </row>
-    <row r="862" spans="8:9" ht="13.2">
+    <row r="862">
       <c r="H862" s="9"/>
       <c r="I862" s="9"/>
     </row>
-    <row r="863" spans="8:9" ht="13.2">
+    <row r="863">
       <c r="H863" s="9"/>
       <c r="I863" s="9"/>
     </row>
-    <row r="864" spans="8:9" ht="13.2">
+    <row r="864">
       <c r="H864" s="9"/>
       <c r="I864" s="9"/>
     </row>
-    <row r="865" spans="8:9" ht="13.2">
+    <row r="865">
       <c r="H865" s="9"/>
       <c r="I865" s="9"/>
     </row>
-    <row r="866" spans="8:9" ht="13.2">
+    <row r="866">
       <c r="H866" s="9"/>
       <c r="I866" s="9"/>
     </row>
-    <row r="867" spans="8:9" ht="13.2">
+    <row r="867">
       <c r="H867" s="9"/>
       <c r="I867" s="9"/>
     </row>
-    <row r="868" spans="8:9" ht="13.2">
+    <row r="868">
       <c r="H868" s="9"/>
       <c r="I868" s="9"/>
     </row>
-    <row r="869" spans="8:9" ht="13.2">
+    <row r="869">
       <c r="H869" s="9"/>
       <c r="I869" s="9"/>
     </row>
-    <row r="870" spans="8:9" ht="13.2">
+    <row r="870">
       <c r="H870" s="9"/>
       <c r="I870" s="9"/>
     </row>
-    <row r="871" spans="8:9" ht="13.2">
+    <row r="871">
       <c r="H871" s="9"/>
       <c r="I871" s="9"/>
     </row>
-    <row r="872" spans="8:9" ht="13.2">
+    <row r="872">
       <c r="H872" s="9"/>
       <c r="I872" s="9"/>
     </row>
-    <row r="873" spans="8:9" ht="13.2">
+    <row r="873">
       <c r="H873" s="9"/>
       <c r="I873" s="9"/>
     </row>
-    <row r="874" spans="8:9" ht="13.2">
+    <row r="874">
       <c r="H874" s="9"/>
       <c r="I874" s="9"/>
     </row>
-    <row r="875" spans="8:9" ht="13.2">
+    <row r="875">
       <c r="H875" s="9"/>
       <c r="I875" s="9"/>
     </row>
-    <row r="876" spans="8:9" ht="13.2">
+    <row r="876">
       <c r="H876" s="9"/>
       <c r="I876" s="9"/>
     </row>
-    <row r="877" spans="8:9" ht="13.2">
+    <row r="877">
       <c r="H877" s="9"/>
       <c r="I877" s="9"/>
     </row>
-    <row r="878" spans="8:9" ht="13.2">
+    <row r="878">
       <c r="H878" s="9"/>
       <c r="I878" s="9"/>
     </row>
-    <row r="879" spans="8:9" ht="13.2">
+    <row r="879">
       <c r="H879" s="9"/>
       <c r="I879" s="9"/>
     </row>
-    <row r="880" spans="8:9" ht="13.2">
+    <row r="880">
       <c r="H880" s="9"/>
       <c r="I880" s="9"/>
     </row>
-    <row r="881" spans="8:9" ht="13.2">
+    <row r="881">
       <c r="H881" s="9"/>
       <c r="I881" s="9"/>
     </row>
-    <row r="882" spans="8:9" ht="13.2">
+    <row r="882">
       <c r="H882" s="9"/>
       <c r="I882" s="9"/>
     </row>
-    <row r="883" spans="8:9" ht="13.2">
+    <row r="883">
       <c r="H883" s="9"/>
       <c r="I883" s="9"/>
     </row>
-    <row r="884" spans="8:9" ht="13.2">
+    <row r="884">
       <c r="H884" s="9"/>
       <c r="I884" s="9"/>
     </row>
-    <row r="885" spans="8:9" ht="13.2">
+    <row r="885">
       <c r="H885" s="9"/>
       <c r="I885" s="9"/>
     </row>
-    <row r="886" spans="8:9" ht="13.2">
+    <row r="886">
       <c r="H886" s="9"/>
       <c r="I886" s="9"/>
     </row>
-    <row r="887" spans="8:9" ht="13.2">
+    <row r="887">
       <c r="H887" s="9"/>
       <c r="I887" s="9"/>
     </row>
-    <row r="888" spans="8:9" ht="13.2">
+    <row r="888">
       <c r="H888" s="9"/>
       <c r="I888" s="9"/>
     </row>
-    <row r="889" spans="8:9" ht="13.2">
+    <row r="889">
       <c r="H889" s="9"/>
       <c r="I889" s="9"/>
     </row>
-    <row r="890" spans="8:9" ht="13.2">
+    <row r="890">
       <c r="H890" s="9"/>
       <c r="I890" s="9"/>
     </row>
-    <row r="891" spans="8:9" ht="13.2">
+    <row r="891">
       <c r="H891" s="9"/>
       <c r="I891" s="9"/>
     </row>
-    <row r="892" spans="8:9" ht="13.2">
+    <row r="892">
       <c r="H892" s="9"/>
       <c r="I892" s="9"/>
     </row>
-    <row r="893" spans="8:9" ht="13.2">
+    <row r="893">
       <c r="H893" s="9"/>
       <c r="I893" s="9"/>
     </row>
-    <row r="894" spans="8:9" ht="13.2">
+    <row r="894">
       <c r="H894" s="9"/>
       <c r="I894" s="9"/>
     </row>
-    <row r="895" spans="8:9" ht="13.2">
+    <row r="895">
       <c r="H895" s="9"/>
       <c r="I895" s="9"/>
     </row>
-    <row r="896" spans="8:9" ht="13.2">
+    <row r="896">
       <c r="H896" s="9"/>
       <c r="I896" s="9"/>
     </row>
-    <row r="897" spans="8:9" ht="13.2">
+    <row r="897">
       <c r="H897" s="9"/>
       <c r="I897" s="9"/>
     </row>
-    <row r="898" spans="8:9" ht="13.2">
+    <row r="898">
       <c r="H898" s="9"/>
       <c r="I898" s="9"/>
     </row>
-    <row r="899" spans="8:9" ht="13.2">
+    <row r="899">
       <c r="H899" s="9"/>
       <c r="I899" s="9"/>
     </row>
-    <row r="900" spans="8:9" ht="13.2">
+    <row r="900">
       <c r="H900" s="9"/>
       <c r="I900" s="9"/>
     </row>
-    <row r="901" spans="8:9" ht="13.2">
+    <row r="901">
       <c r="H901" s="9"/>
       <c r="I901" s="9"/>
     </row>
-    <row r="902" spans="8:9" ht="13.2">
+    <row r="902">
       <c r="H902" s="9"/>
       <c r="I902" s="9"/>
     </row>
-    <row r="903" spans="8:9" ht="13.2">
+    <row r="903">
       <c r="H903" s="9"/>
       <c r="I903" s="9"/>
     </row>
-    <row r="904" spans="8:9" ht="13.2">
+    <row r="904">
       <c r="H904" s="9"/>
       <c r="I904" s="9"/>
     </row>
-    <row r="905" spans="8:9" ht="13.2">
+    <row r="905">
       <c r="H905" s="9"/>
       <c r="I905" s="9"/>
     </row>
-    <row r="906" spans="8:9" ht="13.2">
+    <row r="906">
       <c r="H906" s="9"/>
       <c r="I906" s="9"/>
     </row>
-    <row r="907" spans="8:9" ht="13.2">
+    <row r="907">
       <c r="H907" s="9"/>
       <c r="I907" s="9"/>
     </row>
-    <row r="908" spans="8:9" ht="13.2">
+    <row r="908">
       <c r="H908" s="9"/>
       <c r="I908" s="9"/>
     </row>
-    <row r="909" spans="8:9" ht="13.2">
+    <row r="909">
       <c r="H909" s="9"/>
       <c r="I909" s="9"/>
     </row>
-    <row r="910" spans="8:9" ht="13.2">
+    <row r="910">
       <c r="H910" s="9"/>
       <c r="I910" s="9"/>
     </row>
-    <row r="911" spans="8:9" ht="13.2">
+    <row r="911">
       <c r="H911" s="9"/>
       <c r="I911" s="9"/>
     </row>
-    <row r="912" spans="8:9" ht="13.2">
+    <row r="912">
       <c r="H912" s="9"/>
       <c r="I912" s="9"/>
     </row>
-    <row r="913" spans="8:9" ht="13.2">
+    <row r="913">
       <c r="H913" s="9"/>
       <c r="I913" s="9"/>
     </row>
-    <row r="914" spans="8:9" ht="13.2">
+    <row r="914">
       <c r="H914" s="9"/>
       <c r="I914" s="9"/>
     </row>
-    <row r="915" spans="8:9" ht="13.2">
+    <row r="915">
       <c r="H915" s="9"/>
       <c r="I915" s="9"/>
     </row>
-    <row r="916" spans="8:9" ht="13.2">
+    <row r="916">
       <c r="H916" s="9"/>
       <c r="I916" s="9"/>
     </row>
-    <row r="917" spans="8:9" ht="13.2">
+    <row r="917">
       <c r="H917" s="9"/>
       <c r="I917" s="9"/>
     </row>
-    <row r="918" spans="8:9" ht="13.2">
+    <row r="918">
       <c r="H918" s="9"/>
       <c r="I918" s="9"/>
     </row>
-    <row r="919" spans="8:9" ht="13.2">
+    <row r="919">
       <c r="H919" s="9"/>
       <c r="I919" s="9"/>
     </row>
-    <row r="920" spans="8:9" ht="13.2">
+    <row r="920">
       <c r="H920" s="9"/>
       <c r="I920" s="9"/>
     </row>
-    <row r="921" spans="8:9" ht="13.2">
+    <row r="921">
       <c r="H921" s="9"/>
       <c r="I921" s="9"/>
     </row>
-    <row r="922" spans="8:9" ht="13.2">
+    <row r="922">
       <c r="H922" s="9"/>
       <c r="I922" s="9"/>
     </row>
-    <row r="923" spans="8:9" ht="13.2">
+    <row r="923">
       <c r="H923" s="9"/>
       <c r="I923" s="9"/>
     </row>
-    <row r="924" spans="8:9" ht="13.2">
+    <row r="924">
       <c r="H924" s="9"/>
       <c r="I924" s="9"/>
     </row>
-    <row r="925" spans="8:9" ht="13.2">
+    <row r="925">
       <c r="H925" s="9"/>
       <c r="I925" s="9"/>
     </row>
-    <row r="926" spans="8:9" ht="13.2">
+    <row r="926">
       <c r="H926" s="9"/>
       <c r="I926" s="9"/>
     </row>
-    <row r="927" spans="8:9" ht="13.2">
+    <row r="927">
       <c r="H927" s="9"/>
       <c r="I927" s="9"/>
     </row>
-    <row r="928" spans="8:9" ht="13.2">
+    <row r="928">
       <c r="H928" s="9"/>
       <c r="I928" s="9"/>
     </row>
-    <row r="929" spans="8:9" ht="13.2">
+    <row r="929">
       <c r="H929" s="9"/>
       <c r="I929" s="9"/>
     </row>
-    <row r="930" spans="8:9" ht="13.2">
+    <row r="930">
       <c r="H930" s="9"/>
       <c r="I930" s="9"/>
     </row>
-    <row r="931" spans="8:9" ht="13.2">
+    <row r="931">
       <c r="H931" s="9"/>
       <c r="I931" s="9"/>
     </row>
-    <row r="932" spans="8:9" ht="13.2">
+    <row r="932">
       <c r="H932" s="9"/>
       <c r="I932" s="9"/>
     </row>
-    <row r="933" spans="8:9" ht="13.2">
+    <row r="933">
       <c r="H933" s="9"/>
       <c r="I933" s="9"/>
     </row>
-    <row r="934" spans="8:9" ht="13.2">
+    <row r="934">
       <c r="H934" s="9"/>
       <c r="I934" s="9"/>
     </row>
-    <row r="935" spans="8:9" ht="13.2">
+    <row r="935">
       <c r="H935" s="9"/>
       <c r="I935" s="9"/>
     </row>
-    <row r="936" spans="8:9" ht="13.2">
+    <row r="936">
       <c r="H936" s="9"/>
       <c r="I936" s="9"/>
     </row>
-    <row r="937" spans="8:9" ht="13.2">
+    <row r="937">
       <c r="H937" s="9"/>
       <c r="I937" s="9"/>
     </row>
-    <row r="938" spans="8:9" ht="13.2">
+    <row r="938">
       <c r="H938" s="9"/>
       <c r="I938" s="9"/>
     </row>
-    <row r="939" spans="8:9" ht="13.2">
+    <row r="939">
       <c r="H939" s="9"/>
       <c r="I939" s="9"/>
     </row>
-    <row r="940" spans="8:9" ht="13.2">
+    <row r="940">
       <c r="H940" s="9"/>
       <c r="I940" s="9"/>
     </row>
-    <row r="941" spans="8:9" ht="13.2">
+    <row r="941">
       <c r="H941" s="9"/>
       <c r="I941" s="9"/>
     </row>
-    <row r="942" spans="8:9" ht="13.2">
+    <row r="942">
       <c r="H942" s="9"/>
       <c r="I942" s="9"/>
     </row>
-    <row r="943" spans="8:9" ht="13.2">
+    <row r="943">
       <c r="H943" s="9"/>
       <c r="I943" s="9"/>
     </row>
-    <row r="944" spans="8:9" ht="13.2">
+    <row r="944">
       <c r="H944" s="9"/>
       <c r="I944" s="9"/>
     </row>
-    <row r="945" spans="8:9" ht="13.2">
+    <row r="945">
       <c r="H945" s="9"/>
       <c r="I945" s="9"/>
     </row>
-    <row r="946" spans="8:9" ht="13.2">
+    <row r="946">
       <c r="H946" s="9"/>
       <c r="I946" s="9"/>
     </row>
-    <row r="947" spans="8:9" ht="13.2">
+    <row r="947">
       <c r="H947" s="9"/>
       <c r="I947" s="9"/>
     </row>
-    <row r="948" spans="8:9" ht="13.2">
+    <row r="948">
       <c r="H948" s="9"/>
       <c r="I948" s="9"/>
     </row>
-    <row r="949" spans="8:9" ht="13.2">
+    <row r="949">
       <c r="H949" s="9"/>
       <c r="I949" s="9"/>
     </row>
-    <row r="950" spans="8:9" ht="13.2">
+    <row r="950">
       <c r="H950" s="9"/>
       <c r="I950" s="9"/>
     </row>
-    <row r="951" spans="8:9" ht="13.2">
+    <row r="951">
       <c r="H951" s="9"/>
       <c r="I951" s="9"/>
     </row>
-    <row r="952" spans="8:9" ht="13.2">
+    <row r="952">
       <c r="H952" s="9"/>
       <c r="I952" s="9"/>
     </row>
-    <row r="953" spans="8:9" ht="13.2">
+    <row r="953">
       <c r="H953" s="9"/>
       <c r="I953" s="9"/>
     </row>
-    <row r="954" spans="8:9" ht="13.2">
+    <row r="954">
       <c r="H954" s="9"/>
       <c r="I954" s="9"/>
     </row>
-    <row r="955" spans="8:9" ht="13.2">
+    <row r="955">
       <c r="H955" s="9"/>
       <c r="I955" s="9"/>
     </row>
-    <row r="956" spans="8:9" ht="13.2">
+    <row r="956">
       <c r="H956" s="9"/>
       <c r="I956" s="9"/>
     </row>
-    <row r="957" spans="8:9" ht="13.2">
+    <row r="957">
       <c r="H957" s="9"/>
       <c r="I957" s="9"/>
     </row>
-    <row r="958" spans="8:9" ht="13.2">
+    <row r="958">
       <c r="H958" s="9"/>
       <c r="I958" s="9"/>
     </row>
-    <row r="959" spans="8:9" ht="13.2">
+    <row r="959">
       <c r="H959" s="9"/>
       <c r="I959" s="9"/>
     </row>
-    <row r="960" spans="8:9" ht="13.2">
+    <row r="960">
       <c r="H960" s="9"/>
       <c r="I960" s="9"/>
     </row>
-    <row r="961" spans="8:9" ht="13.2">
+    <row r="961">
       <c r="H961" s="9"/>
       <c r="I961" s="9"/>
     </row>
-    <row r="962" spans="8:9" ht="13.2">
+    <row r="962">
       <c r="H962" s="9"/>
       <c r="I962" s="9"/>
     </row>
-    <row r="963" spans="8:9" ht="13.2">
+    <row r="963">
       <c r="H963" s="9"/>
       <c r="I963" s="9"/>
     </row>
-    <row r="964" spans="8:9" ht="13.2">
+    <row r="964">
       <c r="H964" s="9"/>
       <c r="I964" s="9"/>
     </row>
-    <row r="965" spans="8:9" ht="13.2">
+    <row r="965">
       <c r="H965" s="9"/>
       <c r="I965" s="9"/>
     </row>
-    <row r="966" spans="8:9" ht="13.2">
+    <row r="966">
       <c r="H966" s="9"/>
       <c r="I966" s="9"/>
     </row>
-    <row r="967" spans="8:9" ht="13.2">
+    <row r="967">
       <c r="H967" s="9"/>
       <c r="I967" s="9"/>
     </row>
-    <row r="968" spans="8:9" ht="13.2">
+    <row r="968">
       <c r="H968" s="9"/>
       <c r="I968" s="9"/>
     </row>
-    <row r="969" spans="8:9" ht="13.2">
+    <row r="969">
       <c r="H969" s="9"/>
       <c r="I969" s="9"/>
     </row>
-    <row r="970" spans="8:9" ht="13.2">
+    <row r="970">
       <c r="H970" s="9"/>
       <c r="I970" s="9"/>
     </row>
-    <row r="971" spans="8:9" ht="13.2">
+    <row r="971">
       <c r="H971" s="9"/>
       <c r="I971" s="9"/>
     </row>
-    <row r="972" spans="8:9" ht="13.2">
+    <row r="972">
       <c r="H972" s="9"/>
       <c r="I972" s="9"/>
     </row>
-    <row r="973" spans="8:9" ht="13.2">
+    <row r="973">
       <c r="H973" s="9"/>
       <c r="I973" s="9"/>
     </row>
-    <row r="974" spans="8:9" ht="13.2">
+    <row r="974">
       <c r="H974" s="9"/>
       <c r="I974" s="9"/>
     </row>
-    <row r="975" spans="8:9" ht="13.2">
+    <row r="975">
       <c r="H975" s="9"/>
       <c r="I975" s="9"/>
     </row>
-    <row r="976" spans="8:9" ht="13.2">
+    <row r="976">
       <c r="H976" s="9"/>
       <c r="I976" s="9"/>
     </row>
-    <row r="977" spans="8:9" ht="13.2">
+    <row r="977">
       <c r="H977" s="9"/>
       <c r="I977" s="9"/>
     </row>
-    <row r="978" spans="8:9" ht="13.2">
+    <row r="978">
       <c r="H978" s="9"/>
       <c r="I978" s="9"/>
     </row>
-    <row r="979" spans="8:9" ht="13.2">
+    <row r="979">
       <c r="H979" s="9"/>
       <c r="I979" s="9"/>
     </row>
-    <row r="980" spans="8:9" ht="13.2">
+    <row r="980">
       <c r="H980" s="9"/>
       <c r="I980" s="9"/>
     </row>
-    <row r="981" spans="8:9" ht="13.2">
+    <row r="981">
       <c r="H981" s="9"/>
       <c r="I981" s="9"/>
     </row>
-    <row r="982" spans="8:9" ht="13.2">
+    <row r="982">
       <c r="H982" s="9"/>
       <c r="I982" s="9"/>
     </row>
-    <row r="983" spans="8:9" ht="13.2">
+    <row r="983">
       <c r="H983" s="9"/>
       <c r="I983" s="9"/>
     </row>
-    <row r="984" spans="8:9" ht="13.2">
+    <row r="984">
       <c r="H984" s="9"/>
       <c r="I984" s="9"/>
     </row>
-    <row r="985" spans="8:9" ht="13.2">
+    <row r="985">
       <c r="H985" s="9"/>
       <c r="I985" s="9"/>
     </row>
-    <row r="986" spans="8:9" ht="13.2">
+    <row r="986">
       <c r="H986" s="9"/>
       <c r="I986" s="9"/>
     </row>
-    <row r="987" spans="8:9" ht="13.2">
+    <row r="987">
       <c r="H987" s="9"/>
       <c r="I987" s="9"/>
     </row>
-    <row r="988" spans="8:9" ht="13.2">
+    <row r="988">
       <c r="H988" s="9"/>
       <c r="I988" s="9"/>
     </row>
-    <row r="989" spans="8:9" ht="13.2">
+    <row r="989">
       <c r="H989" s="9"/>
       <c r="I989" s="9"/>
     </row>
-    <row r="990" spans="8:9" ht="13.2">
+    <row r="990">
       <c r="H990" s="9"/>
       <c r="I990" s="9"/>
     </row>
-    <row r="991" spans="8:9" ht="13.2">
+    <row r="991">
       <c r="H991" s="9"/>
       <c r="I991" s="9"/>
     </row>
-    <row r="992" spans="8:9" ht="13.2">
+    <row r="992">
       <c r="H992" s="9"/>
       <c r="I992" s="9"/>
     </row>
-    <row r="993" spans="8:9" ht="13.2">
+    <row r="993">
       <c r="H993" s="9"/>
       <c r="I993" s="9"/>
     </row>
-    <row r="994" spans="8:9" ht="13.2">
+    <row r="994">
       <c r="H994" s="9"/>
       <c r="I994" s="9"/>
     </row>
-    <row r="995" spans="8:9" ht="13.2">
+    <row r="995">
       <c r="H995" s="9"/>
       <c r="I995" s="9"/>
     </row>
-    <row r="996" spans="8:9" ht="13.2">
+    <row r="996">
       <c r="H996" s="9"/>
       <c r="I996" s="9"/>
     </row>
-    <row r="997" spans="8:9" ht="13.2">
+    <row r="997">
       <c r="H997" s="9"/>
       <c r="I997" s="9"/>
     </row>
-    <row r="998" spans="8:9" ht="13.2">
+    <row r="998">
       <c r="H998" s="9"/>
       <c r="I998" s="9"/>
     </row>
-    <row r="999" spans="8:9" ht="13.2">
+    <row r="999">
       <c r="H999" s="9"/>
       <c r="I999" s="9"/>
     </row>
-    <row r="1000" spans="8:9" ht="13.2">
+    <row r="1000">
       <c r="H1000" s="9"/>
       <c r="I1000" s="9"/>
     </row>
-    <row r="1001" spans="8:9" ht="13.2">
+    <row r="1001">
       <c r="H1001" s="9"/>
       <c r="I1001" s="9"/>
     </row>
-    <row r="1002" spans="8:9" ht="13.2">
+    <row r="1002">
       <c r="H1002" s="9"/>
       <c r="I1002" s="9"/>
     </row>
-    <row r="1003" spans="8:9" ht="13.2">
+    <row r="1003">
       <c r="H1003" s="9"/>
       <c r="I1003" s="9"/>
     </row>
-    <row r="1004" spans="8:9" ht="13.2">
+    <row r="1004">
       <c r="H1004" s="9"/>
       <c r="I1004" s="9"/>
     </row>
-    <row r="1005" spans="8:9" ht="13.2">
+    <row r="1005">
       <c r="H1005" s="9"/>
       <c r="I1005" s="9"/>
     </row>
-    <row r="1006" spans="8:9" ht="13.2">
+    <row r="1006">
       <c r="H1006" s="9"/>
       <c r="I1006" s="9"/>
     </row>
-    <row r="1007" spans="8:9" ht="13.2">
+    <row r="1007">
       <c r="H1007" s="9"/>
       <c r="I1007" s="9"/>
     </row>
-    <row r="1008" spans="8:9" ht="13.2">
+    <row r="1008">
       <c r="H1008" s="9"/>
       <c r="I1008" s="9"/>
     </row>
-    <row r="1009" spans="8:9" ht="13.2">
+    <row r="1009">
       <c r="H1009" s="9"/>
       <c r="I1009" s="9"/>
     </row>
-    <row r="1010" spans="8:9" ht="13.2">
+    <row r="1010">
       <c r="H1010" s="9"/>
       <c r="I1010" s="9"/>
     </row>
-    <row r="1011" spans="8:9" ht="13.2">
+    <row r="1011">
       <c r="H1011" s="9"/>
       <c r="I1011" s="9"/>
     </row>
-    <row r="1012" spans="8:9" ht="13.2">
+    <row r="1012">
       <c r="H1012" s="9"/>
       <c r="I1012" s="9"/>
     </row>
-    <row r="1013" spans="8:9" ht="13.2">
+    <row r="1013">
       <c r="H1013" s="9"/>
       <c r="I1013" s="9"/>
     </row>
-    <row r="1014" spans="8:9" ht="13.2">
+    <row r="1014">
       <c r="H1014" s="9"/>
       <c r="I1014" s="9"/>
     </row>
-    <row r="1015" spans="8:9" ht="13.2">
+    <row r="1015">
       <c r="H1015" s="9"/>
       <c r="I1015" s="9"/>
     </row>
-    <row r="1016" spans="8:9" ht="13.2">
+    <row r="1016">
       <c r="H1016" s="9"/>
       <c r="I1016" s="9"/>
     </row>
-    <row r="1017" spans="8:9" ht="13.2">
+    <row r="1017">
       <c r="H1017" s="9"/>
       <c r="I1017" s="9"/>
     </row>
-    <row r="1018" spans="8:9" ht="13.2">
+    <row r="1018">
       <c r="H1018" s="9"/>
       <c r="I1018" s="9"/>
     </row>
-    <row r="1019" spans="8:9" ht="13.2">
+    <row r="1019">
       <c r="H1019" s="9"/>
       <c r="I1019" s="9"/>
     </row>
-    <row r="1020" spans="8:9" ht="13.2">
+    <row r="1020">
       <c r="H1020" s="9"/>
       <c r="I1020" s="9"/>
     </row>
-    <row r="1021" spans="8:9" ht="13.2">
+    <row r="1021">
       <c r="H1021" s="9"/>
       <c r="I1021" s="9"/>
     </row>
-    <row r="1022" spans="8:9" ht="13.2">
+    <row r="1022">
       <c r="H1022" s="9"/>
       <c r="I1022" s="9"/>
     </row>
-    <row r="1023" spans="8:9" ht="13.2">
+    <row r="1023">
       <c r="H1023" s="9"/>
       <c r="I1023" s="9"/>
     </row>
-    <row r="1024" spans="8:9" ht="13.2">
+    <row r="1024">
       <c r="H1024" s="9"/>
       <c r="I1024" s="9"/>
     </row>
-    <row r="1025" spans="8:9" ht="13.2">
+    <row r="1025">
       <c r="H1025" s="9"/>
       <c r="I1025" s="9"/>
     </row>
-    <row r="1026" spans="8:9" ht="13.2">
+    <row r="1026">
       <c r="H1026" s="9"/>
       <c r="I1026" s="9"/>
     </row>
-    <row r="1027" spans="8:9" ht="13.2">
+    <row r="1027">
       <c r="H1027" s="9"/>
       <c r="I1027" s="9"/>
     </row>
-    <row r="1028" spans="8:9" ht="13.2">
+    <row r="1028">
       <c r="H1028" s="9"/>
       <c r="I1028" s="9"/>
     </row>
-    <row r="1029" spans="8:9" ht="13.2">
+    <row r="1029">
       <c r="H1029" s="9"/>
       <c r="I1029" s="9"/>
     </row>
-    <row r="1030" spans="8:9" ht="13.2">
+    <row r="1030">
       <c r="H1030" s="9"/>
       <c r="I1030" s="9"/>
     </row>
-    <row r="1031" spans="8:9" ht="13.2">
+    <row r="1031">
       <c r="H1031" s="9"/>
       <c r="I1031" s="9"/>
     </row>
-    <row r="1032" spans="8:9" ht="13.2">
+    <row r="1032">
       <c r="H1032" s="9"/>
       <c r="I1032" s="9"/>
     </row>
-    <row r="1033" spans="8:9" ht="13.2">
+    <row r="1033">
       <c r="H1033" s="9"/>
       <c r="I1033" s="9"/>
     </row>
-    <row r="1034" spans="8:9" ht="13.2">
+    <row r="1034">
       <c r="H1034" s="9"/>
       <c r="I1034" s="9"/>
     </row>
-    <row r="1035" spans="8:9" ht="13.2">
+    <row r="1035">
       <c r="H1035" s="9"/>
       <c r="I1035" s="9"/>
     </row>
-    <row r="1036" spans="8:9" ht="13.2">
+    <row r="1036">
       <c r="H1036" s="9"/>
       <c r="I1036" s="9"/>
     </row>
-    <row r="1037" spans="8:9" ht="13.2">
+    <row r="1037">
       <c r="H1037" s="9"/>
       <c r="I1037" s="9"/>
     </row>
-    <row r="1038" spans="8:9" ht="13.2">
+    <row r="1038">
       <c r="H1038" s="9"/>
       <c r="I1038" s="9"/>
     </row>
-    <row r="1039" spans="8:9" ht="13.2">
+    <row r="1039">
       <c r="H1039" s="9"/>
       <c r="I1039" s="9"/>
     </row>
-    <row r="1040" spans="8:9" ht="13.2">
+    <row r="1040">
       <c r="H1040" s="9"/>
       <c r="I1040" s="9"/>
     </row>
-    <row r="1041" spans="8:9" ht="13.2">
+    <row r="1041">
       <c r="H1041" s="9"/>
       <c r="I1041" s="9"/>
     </row>
-    <row r="1042" spans="8:9" ht="13.2">
+    <row r="1042">
       <c r="H1042" s="9"/>
       <c r="I1042" s="9"/>
     </row>
-    <row r="1043" spans="8:9" ht="13.2">
+    <row r="1043">
       <c r="H1043" s="9"/>
       <c r="I1043" s="9"/>
     </row>
-    <row r="1044" spans="8:9" ht="13.2">
+    <row r="1044">
       <c r="H1044" s="9"/>
       <c r="I1044" s="9"/>
     </row>
-    <row r="1045" spans="8:9" ht="13.2">
+    <row r="1045">
       <c r="H1045" s="9"/>
       <c r="I1045" s="9"/>
     </row>
-    <row r="1046" spans="8:9" ht="13.2">
+    <row r="1046">
       <c r="H1046" s="9"/>
       <c r="I1046" s="9"/>
     </row>
-    <row r="1047" spans="8:9" ht="13.2">
+    <row r="1047">
       <c r="H1047" s="9"/>
       <c r="I1047" s="9"/>
     </row>
-    <row r="1048" spans="8:9" ht="13.2">
+    <row r="1048">
       <c r="H1048" s="9"/>
       <c r="I1048" s="9"/>
     </row>
-    <row r="1049" spans="8:9" ht="13.2">
+    <row r="1049">
       <c r="H1049" s="9"/>
       <c r="I1049" s="9"/>
     </row>
-    <row r="1050" spans="8:9" ht="13.2">
+    <row r="1050">
       <c r="H1050" s="9"/>
       <c r="I1050" s="9"/>
     </row>
-    <row r="1051" spans="8:9" ht="13.2">
+    <row r="1051">
       <c r="H1051" s="9"/>
       <c r="I1051" s="9"/>
     </row>
-    <row r="1052" spans="8:9" ht="13.2">
+    <row r="1052">
       <c r="H1052" s="9"/>
       <c r="I1052" s="9"/>
     </row>
-    <row r="1053" spans="8:9" ht="13.2">
+    <row r="1053">
       <c r="H1053" s="9"/>
       <c r="I1053" s="9"/>
     </row>
-    <row r="1054" spans="8:9" ht="13.2">
+    <row r="1054">
       <c r="H1054" s="9"/>
       <c r="I1054" s="9"/>
     </row>
-    <row r="1055" spans="8:9" ht="13.2">
+    <row r="1055">
       <c r="H1055" s="9"/>
       <c r="I1055" s="9"/>
     </row>
-    <row r="1056" spans="8:9" ht="13.2">
+    <row r="1056">
       <c r="H1056" s="9"/>
       <c r="I1056" s="9"/>
     </row>
-    <row r="1057" spans="8:9" ht="13.2">
+    <row r="1057">
       <c r="H1057" s="9"/>
       <c r="I1057" s="9"/>
     </row>
-    <row r="1058" spans="8:9" ht="13.2">
+    <row r="1058">
       <c r="H1058" s="9"/>
       <c r="I1058" s="9"/>
     </row>
-    <row r="1059" spans="8:9" ht="13.2">
+    <row r="1059">
       <c r="H1059" s="9"/>
       <c r="I1059" s="9"/>
     </row>
-    <row r="1060" spans="8:9" ht="13.2">
+    <row r="1060">
       <c r="H1060" s="9"/>
       <c r="I1060" s="9"/>
     </row>
-    <row r="1061" spans="8:9" ht="13.2">
+    <row r="1061">
       <c r="H1061" s="9"/>
       <c r="I1061" s="9"/>
     </row>
-    <row r="1062" spans="8:9" ht="13.2">
+    <row r="1062">
       <c r="H1062" s="9"/>
       <c r="I1062" s="9"/>
     </row>
-    <row r="1063" spans="8:9" ht="13.2">
+    <row r="1063">
       <c r="H1063" s="9"/>
       <c r="I1063" s="9"/>
     </row>
-    <row r="1064" spans="8:9" ht="13.2">
+    <row r="1064">
       <c r="H1064" s="9"/>
       <c r="I1064" s="9"/>
     </row>
-    <row r="1065" spans="8:9" ht="13.2">
+    <row r="1065">
       <c r="H1065" s="9"/>
       <c r="I1065" s="9"/>
     </row>
-    <row r="1066" spans="8:9" ht="13.2">
+    <row r="1066">
       <c r="H1066" s="9"/>
       <c r="I1066" s="9"/>
     </row>
-    <row r="1067" spans="8:9" ht="13.2">
+    <row r="1067">
       <c r="H1067" s="9"/>
       <c r="I1067" s="9"/>
     </row>
-    <row r="1068" spans="8:9" ht="13.2">
+    <row r="1068">
       <c r="H1068" s="9"/>
       <c r="I1068" s="9"/>
     </row>
-    <row r="1069" spans="8:9" ht="13.2">
+    <row r="1069">
       <c r="H1069" s="9"/>
       <c r="I1069" s="9"/>
     </row>
-    <row r="1070" spans="8:9" ht="13.2">
+    <row r="1070">
       <c r="H1070" s="9"/>
       <c r="I1070" s="9"/>
     </row>
-    <row r="1071" spans="8:9" ht="13.2">
+    <row r="1071">
       <c r="H1071" s="9"/>
       <c r="I1071" s="9"/>
     </row>
-    <row r="1072" spans="8:9" ht="13.2">
+    <row r="1072">
       <c r="H1072" s="9"/>
       <c r="I1072" s="9"/>
     </row>
-    <row r="1073" spans="8:9" ht="13.2">
+    <row r="1073">
       <c r="H1073" s="9"/>
       <c r="I1073" s="9"/>
     </row>
-    <row r="1074" spans="8:9" ht="13.2">
+    <row r="1074">
       <c r="H1074" s="9"/>
       <c r="I1074" s="9"/>
     </row>
-    <row r="1075" spans="8:9" ht="13.2">
+    <row r="1075">
       <c r="H1075" s="9"/>
       <c r="I1075" s="9"/>
     </row>
-    <row r="1076" spans="8:9" ht="13.2">
+    <row r="1076">
       <c r="H1076" s="9"/>
       <c r="I1076" s="9"/>
     </row>
-    <row r="1077" spans="8:9" ht="13.2">
+    <row r="1077">
       <c r="H1077" s="9"/>
       <c r="I1077" s="9"/>
     </row>
-    <row r="1078" spans="8:9" ht="13.2">
+    <row r="1078">
       <c r="H1078" s="9"/>
       <c r="I1078" s="9"/>
     </row>
-    <row r="1079" spans="8:9" ht="13.2">
+    <row r="1079">
       <c r="H1079" s="9"/>
       <c r="I1079" s="9"/>
     </row>
-    <row r="1080" spans="8:9" ht="13.2">
+    <row r="1080">
       <c r="H1080" s="9"/>
       <c r="I1080" s="9"/>
     </row>
-    <row r="1081" spans="8:9" ht="13.2">
+    <row r="1081">
       <c r="H1081" s="9"/>
       <c r="I1081" s="9"/>
     </row>
-    <row r="1082" spans="8:9" ht="13.2">
+    <row r="1082">
       <c r="H1082" s="9"/>
       <c r="I1082" s="9"/>
     </row>
-    <row r="1083" spans="8:9" ht="13.2">
+    <row r="1083">
       <c r="H1083" s="9"/>
       <c r="I1083" s="9"/>
     </row>
-    <row r="1084" spans="8:9" ht="13.2">
+    <row r="1084">
       <c r="H1084" s="9"/>
       <c r="I1084" s="9"/>
     </row>
-    <row r="1085" spans="8:9" ht="13.2">
+    <row r="1085">
       <c r="H1085" s="9"/>
       <c r="I1085" s="9"/>
     </row>
-    <row r="1086" spans="8:9" ht="13.2">
+    <row r="1086">
       <c r="H1086" s="9"/>
       <c r="I1086" s="9"/>
     </row>
-    <row r="1087" spans="8:9" ht="13.2">
+    <row r="1087">
       <c r="H1087" s="9"/>
       <c r="I1087" s="9"/>
     </row>
-    <row r="1088" spans="8:9" ht="13.2">
+    <row r="1088">
       <c r="H1088" s="9"/>
       <c r="I1088" s="9"/>
     </row>
-    <row r="1089" spans="8:9" ht="13.2">
+    <row r="1089">
       <c r="H1089" s="9"/>
       <c r="I1089" s="9"/>
     </row>
-    <row r="1090" spans="8:9" ht="13.2">
+    <row r="1090">
       <c r="H1090" s="9"/>
       <c r="I1090" s="9"/>
     </row>
-    <row r="1091" spans="8:9" ht="13.2">
+    <row r="1091">
       <c r="H1091" s="9"/>
       <c r="I1091" s="9"/>
     </row>
-    <row r="1092" spans="8:9" ht="13.2">
+    <row r="1092">
       <c r="H1092" s="9"/>
       <c r="I1092" s="9"/>
     </row>
-    <row r="1093" spans="8:9" ht="13.2">
+    <row r="1093">
       <c r="H1093" s="9"/>
       <c r="I1093" s="9"/>
     </row>
-    <row r="1094" spans="8:9" ht="13.2">
+    <row r="1094">
       <c r="H1094" s="9"/>
       <c r="I1094" s="9"/>
     </row>
-    <row r="1095" spans="8:9" ht="13.2">
+    <row r="1095">
       <c r="H1095" s="9"/>
       <c r="I1095" s="9"/>
     </row>
-    <row r="1096" spans="8:9" ht="13.2">
+    <row r="1096">
       <c r="H1096" s="9"/>
       <c r="I1096" s="9"/>
     </row>
-    <row r="1097" spans="8:9" ht="13.2">
+    <row r="1097">
       <c r="H1097" s="9"/>
       <c r="I1097" s="9"/>
     </row>
-    <row r="1098" spans="8:9" ht="13.2">
+    <row r="1098">
       <c r="H1098" s="9"/>
       <c r="I1098" s="9"/>
     </row>
-    <row r="1099" spans="8:9" ht="13.2">
+    <row r="1099">
       <c r="H1099" s="9"/>
       <c r="I1099" s="9"/>
     </row>
-    <row r="1100" spans="8:9" ht="13.2">
+    <row r="1100">
       <c r="H1100" s="9"/>
       <c r="I1100" s="9"/>
     </row>
-    <row r="1101" spans="8:9" ht="13.2">
+    <row r="1101">
       <c r="H1101" s="9"/>
       <c r="I1101" s="9"/>
     </row>
-    <row r="1102" spans="8:9" ht="13.2">
+    <row r="1102">
       <c r="H1102" s="9"/>
       <c r="I1102" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{ecb9909e-a632-4cc5-be2e-ce284d9ed345}" enabled="1" method="Standard" siteId="{90254b37-ddd6-4784-a73c-67a28484e423}" removed="0"/>
-</clbl:labelList>
 </file>